--- a/Correlation/Metric 1, 2 and 4/Correlation 1,2&4.xlsx
+++ b/Correlation/Metric 1, 2 and 4/Correlation 1,2&4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Commons Codec" sheetId="1" r:id="rId1"/>
@@ -4254,17 +4254,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
@@ -6607,7 +6605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -6623,16 +6621,16 @@
   <dimension ref="A1:G493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
   </cols>
@@ -18983,16 +18981,16 @@
   <dimension ref="A1:G286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
   </cols>
@@ -26171,16 +26169,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
   </cols>
@@ -26219,7 +26217,7 @@
         <v>0.81578947368421051</v>
       </c>
       <c r="D2" s="1">
-        <f>C2*100</f>
+        <f t="shared" ref="D2:D65" si="0">C2*100</f>
         <v>81.578947368421055</v>
       </c>
       <c r="E2" s="1">
@@ -26244,14 +26242,14 @@
         <v>0.87096774193548387</v>
       </c>
       <c r="D3" s="1">
-        <f>C3*100</f>
+        <f t="shared" si="0"/>
         <v>87.096774193548384</v>
       </c>
       <c r="E3" s="1">
         <v>0.87179487179487181</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F66" si="0">E3*100</f>
+        <f t="shared" ref="F3:F66" si="1">E3*100</f>
         <v>87.179487179487182</v>
       </c>
       <c r="G3" s="1">
@@ -26269,14 +26267,14 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <f>C4*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4" s="1">
@@ -26294,14 +26292,14 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <f>C5*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="1">
@@ -26319,14 +26317,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <f>C6*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
@@ -26344,14 +26342,14 @@
         <v>6.25E-2</v>
       </c>
       <c r="D7" s="1">
-        <f>C7*100</f>
+        <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
       <c r="E7" s="1">
         <v>0.26</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="G7" s="1">
@@ -26369,14 +26367,14 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D8" s="1">
-        <f>C8*100</f>
+        <f t="shared" si="0"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="E8" s="1">
         <v>0.27272727272727271</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.27272727272727</v>
       </c>
       <c r="G8" s="1">
@@ -26394,14 +26392,14 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <f>C9*100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>0.26315789473684209</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.315789473684209</v>
       </c>
       <c r="G9" s="1">
@@ -26419,14 +26417,14 @@
         <v>0.69230769230769229</v>
       </c>
       <c r="D10" s="1">
-        <f>C10*100</f>
+        <f t="shared" si="0"/>
         <v>69.230769230769226</v>
       </c>
       <c r="E10" s="1">
         <v>0.70588235294117652</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70.588235294117652</v>
       </c>
       <c r="G10" s="1">
@@ -26444,14 +26442,14 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <f>C11*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G11" s="1">
@@ -26469,14 +26467,14 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f>C12*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G12" s="1">
@@ -26494,14 +26492,14 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f>C13*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G13" s="1">
@@ -26519,14 +26517,14 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <f>C14*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G14" s="1">
@@ -26544,14 +26542,14 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f>C15*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G15" s="1">
@@ -26569,14 +26567,14 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <f>C16*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G16" s="1">
@@ -26594,14 +26592,14 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <f>C17*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G17" s="1">
@@ -26619,14 +26617,14 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <f>C18*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G18" s="1">
@@ -26644,14 +26642,14 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f>C19*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="1">
@@ -26669,14 +26667,14 @@
         <v>0.63043478260869568</v>
       </c>
       <c r="D20" s="1">
-        <f>C20*100</f>
+        <f t="shared" si="0"/>
         <v>63.04347826086957</v>
       </c>
       <c r="E20" s="1">
         <v>0.78521126760563376</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78.521126760563376</v>
       </c>
       <c r="G20" s="1">
@@ -26694,14 +26692,14 @@
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <f>C21*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="1">
@@ -26719,14 +26717,14 @@
         <v>0.68695652173913047</v>
       </c>
       <c r="D22" s="1">
-        <f>C22*100</f>
+        <f t="shared" si="0"/>
         <v>68.695652173913047</v>
       </c>
       <c r="E22" s="1">
         <v>0.85616438356164382</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85.61643835616438</v>
       </c>
       <c r="G22" s="1">
@@ -26744,14 +26742,14 @@
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f>C23*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G23" s="1">
@@ -26769,14 +26767,14 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="D24" s="1">
-        <f>C24*100</f>
+        <f t="shared" si="0"/>
         <v>92.857142857142861</v>
       </c>
       <c r="E24" s="1">
         <v>0.96153846153846156</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96.15384615384616</v>
       </c>
       <c r="G24" s="1">
@@ -26794,14 +26792,14 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <f>C25*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G25" s="1">
@@ -26819,14 +26817,14 @@
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <f>C26*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G26" s="1">
@@ -26844,14 +26842,14 @@
         <v>0.75</v>
       </c>
       <c r="D27" s="1">
-        <f>C27*100</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G27" s="1">
@@ -26869,14 +26867,14 @@
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <f>C28*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G28" s="1">
@@ -26894,14 +26892,14 @@
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <f>C29*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G29" s="1">
@@ -26919,14 +26917,14 @@
         <v>0.75</v>
       </c>
       <c r="D30" s="1">
-        <f>C30*100</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="E30" s="1">
         <v>0.91666666666666663</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.666666666666657</v>
       </c>
       <c r="G30" s="1">
@@ -26944,14 +26942,14 @@
         <v>0.875</v>
       </c>
       <c r="D31" s="1">
-        <f>C31*100</f>
+        <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
       <c r="E31" s="1">
         <v>0.95</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="G31" s="1">
@@ -26969,14 +26967,14 @@
         <v>0.9</v>
       </c>
       <c r="D32" s="1">
-        <f>C32*100</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G32" s="1">
@@ -26994,14 +26992,14 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="D33" s="1">
-        <f>C33*100</f>
+        <f t="shared" si="0"/>
         <v>85.714285714285708</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G33" s="1">
@@ -27019,14 +27017,14 @@
         <v>1</v>
       </c>
       <c r="D34" s="1">
-        <f>C34*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G34" s="1">
@@ -27044,14 +27042,14 @@
         <v>1</v>
       </c>
       <c r="D35" s="1">
-        <f>C35*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G35" s="1">
@@ -27069,14 +27067,14 @@
         <v>1</v>
       </c>
       <c r="D36" s="1">
-        <f>C36*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G36" s="1">
@@ -27094,14 +27092,14 @@
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <f>C37*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G37" s="1">
@@ -27119,14 +27117,14 @@
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <f>C38*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G38" s="1">
@@ -27144,14 +27142,14 @@
         <v>0.75</v>
       </c>
       <c r="D39" s="1">
-        <f>C39*100</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G39" s="1">
@@ -27169,14 +27167,14 @@
         <v>0.5</v>
       </c>
       <c r="D40" s="1">
-        <f>C40*100</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E40" s="1">
         <v>0.9</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G40" s="1">
@@ -27194,14 +27192,14 @@
         <v>1</v>
       </c>
       <c r="D41" s="1">
-        <f>C41*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G41" s="1">
@@ -27219,14 +27217,14 @@
         <v>0.9</v>
       </c>
       <c r="D42" s="1">
-        <f>C42*100</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G42" s="1">
@@ -27244,14 +27242,14 @@
         <v>1</v>
       </c>
       <c r="D43" s="1">
-        <f>C43*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G43" s="1">
@@ -27269,14 +27267,14 @@
         <v>0.5</v>
       </c>
       <c r="D44" s="1">
-        <f>C44*100</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E44" s="1">
         <v>0.875</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="G44" s="1">
@@ -27294,14 +27292,14 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="D45" s="1">
-        <f>C45*100</f>
+        <f t="shared" si="0"/>
         <v>90.909090909090907</v>
       </c>
       <c r="E45" s="1">
         <v>0.97687861271676302</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97.687861271676297</v>
       </c>
       <c r="G45" s="1">
@@ -27319,14 +27317,14 @@
         <v>1</v>
       </c>
       <c r="D46" s="1">
-        <f>C46*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G46" s="1">
@@ -27344,14 +27342,14 @@
         <v>1</v>
       </c>
       <c r="D47" s="1">
-        <f>C47*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G47" s="1">
@@ -27369,14 +27367,14 @@
         <v>1</v>
       </c>
       <c r="D48" s="1">
-        <f>C48*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G48" s="1">
@@ -27394,14 +27392,14 @@
         <v>1</v>
       </c>
       <c r="D49" s="1">
-        <f>C49*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G49" s="1">
@@ -27419,14 +27417,14 @@
         <v>1</v>
       </c>
       <c r="D50" s="1">
-        <f>C50*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E50" s="1">
         <v>0.91666666666666663</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.666666666666657</v>
       </c>
       <c r="G50" s="1">
@@ -27444,14 +27442,14 @@
         <v>1</v>
       </c>
       <c r="D51" s="1">
-        <f>C51*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G51" s="1">
@@ -27469,14 +27467,14 @@
         <v>0.97727272727272729</v>
       </c>
       <c r="D52" s="1">
-        <f>C52*100</f>
+        <f t="shared" si="0"/>
         <v>97.727272727272734</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G52" s="1">
@@ -27494,14 +27492,14 @@
         <v>0.75</v>
       </c>
       <c r="D53" s="1">
-        <f>C53*100</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="E53" s="1">
         <v>0.91666666666666663</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.666666666666657</v>
       </c>
       <c r="G53" s="1">
@@ -27519,14 +27517,14 @@
         <v>0.375</v>
       </c>
       <c r="D54" s="1">
-        <f>C54*100</f>
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="E54" s="1">
         <v>0.625</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
       <c r="G54" s="1">
@@ -27544,14 +27542,14 @@
         <v>0.8125</v>
       </c>
       <c r="D55" s="1">
-        <f>C55*100</f>
+        <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
       <c r="E55" s="1">
         <v>0.96153846153846156</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96.15384615384616</v>
       </c>
       <c r="G55" s="1">
@@ -27569,14 +27567,14 @@
         <v>1</v>
       </c>
       <c r="D56" s="1">
-        <f>C56*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G56" s="1">
@@ -27594,14 +27592,14 @@
         <v>1</v>
       </c>
       <c r="D57" s="1">
-        <f>C57*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G57" s="1">
@@ -27619,14 +27617,14 @@
         <v>1</v>
       </c>
       <c r="D58" s="1">
-        <f>C58*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G58" s="1">
@@ -27644,14 +27642,14 @@
         <v>1</v>
       </c>
       <c r="D59" s="1">
-        <f>C59*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G59" s="1">
@@ -27669,14 +27667,14 @@
         <v>1</v>
       </c>
       <c r="D60" s="1">
-        <f>C60*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G60" s="1">
@@ -27694,14 +27692,14 @@
         <v>0.810126582278481</v>
       </c>
       <c r="D61" s="1">
-        <f>C61*100</f>
+        <f t="shared" si="0"/>
         <v>81.012658227848107</v>
       </c>
       <c r="E61" s="1">
         <v>0.78125</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78.125</v>
       </c>
       <c r="G61" s="1">
@@ -27719,14 +27717,14 @@
         <v>1</v>
       </c>
       <c r="D62" s="1">
-        <f>C62*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E62" s="1">
         <v>0.95121951219512191</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95.121951219512198</v>
       </c>
       <c r="G62" s="1">
@@ -27744,14 +27742,14 @@
         <v>1</v>
       </c>
       <c r="D63" s="1">
-        <f>C63*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G63" s="1">
@@ -27769,14 +27767,14 @@
         <v>1</v>
       </c>
       <c r="D64" s="1">
-        <f>C64*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G64" s="1">
@@ -27794,14 +27792,14 @@
         <v>1</v>
       </c>
       <c r="D65" s="1">
-        <f>C65*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G65" s="1">
@@ -27819,14 +27817,14 @@
         <v>1</v>
       </c>
       <c r="D66" s="1">
-        <f>C66*100</f>
+        <f t="shared" ref="D66:D129" si="2">C66*100</f>
         <v>100</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G66" s="1">
@@ -27844,14 +27842,14 @@
         <v>0.87096774193548387</v>
       </c>
       <c r="D67" s="1">
-        <f>C67*100</f>
+        <f t="shared" si="2"/>
         <v>87.096774193548384</v>
       </c>
       <c r="E67" s="1">
         <v>0.87179487179487181</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" ref="F67:F130" si="1">E67*100</f>
+        <f t="shared" ref="F67:F130" si="3">E67*100</f>
         <v>87.179487179487182</v>
       </c>
       <c r="G67" s="1">
@@ -27869,14 +27867,14 @@
         <v>0.9</v>
       </c>
       <c r="D68" s="1">
-        <f>C68*100</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="E68" s="1">
         <v>0.96721311475409832</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>96.721311475409834</v>
       </c>
       <c r="G68" s="1">
@@ -27894,14 +27892,14 @@
         <v>1</v>
       </c>
       <c r="D69" s="1">
-        <f>C69*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G69" s="1">
@@ -27919,14 +27917,14 @@
         <v>1</v>
       </c>
       <c r="D70" s="1">
-        <f>C70*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G70" s="1">
@@ -27944,14 +27942,14 @@
         <v>1</v>
       </c>
       <c r="D71" s="1">
-        <f>C71*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G71" s="1">
@@ -27969,14 +27967,14 @@
         <v>1</v>
       </c>
       <c r="D72" s="1">
-        <f>C72*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G72" s="1">
@@ -27994,14 +27992,14 @@
         <v>1</v>
       </c>
       <c r="D73" s="1">
-        <f>C73*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G73" s="1">
@@ -28019,14 +28017,14 @@
         <v>1</v>
       </c>
       <c r="D74" s="1">
-        <f>C74*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G74" s="1">
@@ -28044,14 +28042,14 @@
         <v>1</v>
       </c>
       <c r="D75" s="1">
-        <f>C75*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G75" s="1">
@@ -28069,14 +28067,14 @@
         <v>1</v>
       </c>
       <c r="D76" s="1">
-        <f>C76*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G76" s="1">
@@ -28094,14 +28092,14 @@
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <f>C77*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G77" s="1">
@@ -28119,14 +28117,14 @@
         <v>1</v>
       </c>
       <c r="D78" s="1">
-        <f>C78*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E78" s="1">
         <v>0.5</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G78" s="1">
@@ -28144,14 +28142,14 @@
         <v>1</v>
       </c>
       <c r="D79" s="1">
-        <f>C79*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G79" s="1">
@@ -28169,14 +28167,14 @@
         <v>1</v>
       </c>
       <c r="D80" s="1">
-        <f>C80*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E80" s="1">
         <v>0.5</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G80" s="1">
@@ -28194,14 +28192,14 @@
         <v>1</v>
       </c>
       <c r="D81" s="1">
-        <f>C81*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G81" s="1">
@@ -28219,14 +28217,14 @@
         <v>1</v>
       </c>
       <c r="D82" s="1">
-        <f>C82*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E82" s="1">
         <v>0.5</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G82" s="1">
@@ -28244,14 +28242,14 @@
         <v>1</v>
       </c>
       <c r="D83" s="1">
-        <f>C83*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G83" s="1">
@@ -28269,14 +28267,14 @@
         <v>1</v>
       </c>
       <c r="D84" s="1">
-        <f>C84*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G84" s="1">
@@ -28294,14 +28292,14 @@
         <v>1</v>
       </c>
       <c r="D85" s="1">
-        <f>C85*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G85" s="1">
@@ -28319,14 +28317,14 @@
         <v>1</v>
       </c>
       <c r="D86" s="1">
-        <f>C86*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G86" s="1">
@@ -28344,14 +28342,14 @@
         <v>1</v>
       </c>
       <c r="D87" s="1">
-        <f>C87*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G87" s="1">
@@ -28369,14 +28367,14 @@
         <v>1</v>
       </c>
       <c r="D88" s="1">
-        <f>C88*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E88" s="1">
         <v>0.5</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G88" s="1">
@@ -28394,14 +28392,14 @@
         <v>1</v>
       </c>
       <c r="D89" s="1">
-        <f>C89*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E89" s="1">
         <v>0.5</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G89" s="1">
@@ -28419,14 +28417,14 @@
         <v>1</v>
       </c>
       <c r="D90" s="1">
-        <f>C90*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G90" s="1">
@@ -28444,14 +28442,14 @@
         <v>1</v>
       </c>
       <c r="D91" s="1">
-        <f>C91*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G91" s="1">
@@ -28469,14 +28467,14 @@
         <v>1</v>
       </c>
       <c r="D92" s="1">
-        <f>C92*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G92" s="1">
@@ -28494,14 +28492,14 @@
         <v>1</v>
       </c>
       <c r="D93" s="1">
-        <f>C93*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E93" s="1">
         <v>0</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G93" s="1">
@@ -28519,14 +28517,14 @@
         <v>1</v>
       </c>
       <c r="D94" s="1">
-        <f>C94*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G94" s="1">
@@ -28544,14 +28542,14 @@
         <v>1</v>
       </c>
       <c r="D95" s="1">
-        <f>C95*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G95" s="1">
@@ -28569,14 +28567,14 @@
         <v>1</v>
       </c>
       <c r="D96" s="1">
-        <f>C96*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E96" s="1">
         <v>0.5</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G96" s="1">
@@ -28594,14 +28592,14 @@
         <v>1</v>
       </c>
       <c r="D97" s="1">
-        <f>C97*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G97" s="1">
@@ -28619,14 +28617,14 @@
         <v>1</v>
       </c>
       <c r="D98" s="1">
-        <f>C98*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E98" s="1">
         <v>0.5</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G98" s="1">
@@ -28644,14 +28642,14 @@
         <v>1</v>
       </c>
       <c r="D99" s="1">
-        <f>C99*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G99" s="1">
@@ -28669,14 +28667,14 @@
         <v>1</v>
       </c>
       <c r="D100" s="1">
-        <f>C100*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E100" s="1">
         <v>0</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G100" s="1">
@@ -28694,14 +28692,14 @@
         <v>1</v>
       </c>
       <c r="D101" s="1">
-        <f>C101*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G101" s="1">
@@ -28719,14 +28717,14 @@
         <v>1</v>
       </c>
       <c r="D102" s="1">
-        <f>C102*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G102" s="1">
@@ -28744,14 +28742,14 @@
         <v>1</v>
       </c>
       <c r="D103" s="1">
-        <f>C103*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G103" s="1">
@@ -28769,14 +28767,14 @@
         <v>1</v>
       </c>
       <c r="D104" s="1">
-        <f>C104*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E104" s="1">
         <v>0</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G104" s="1">
@@ -28794,14 +28792,14 @@
         <v>1</v>
       </c>
       <c r="D105" s="1">
-        <f>C105*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G105" s="1">
@@ -28819,14 +28817,14 @@
         <v>1</v>
       </c>
       <c r="D106" s="1">
-        <f>C106*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E106" s="1">
         <v>0</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G106" s="1">
@@ -28844,14 +28842,14 @@
         <v>1</v>
       </c>
       <c r="D107" s="1">
-        <f>C107*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G107" s="1">
@@ -28869,14 +28867,14 @@
         <v>1</v>
       </c>
       <c r="D108" s="1">
-        <f>C108*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E108" s="1">
         <v>0.5</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G108" s="1">
@@ -28894,14 +28892,14 @@
         <v>1</v>
       </c>
       <c r="D109" s="1">
-        <f>C109*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E109" s="1">
         <v>0.5</v>
       </c>
       <c r="F109" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G109" s="1">
@@ -28919,14 +28917,14 @@
         <v>1</v>
       </c>
       <c r="D110" s="1">
-        <f>C110*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E110" s="1">
         <v>0.5</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G110" s="1">
@@ -28944,14 +28942,14 @@
         <v>1</v>
       </c>
       <c r="D111" s="1">
-        <f>C111*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G111" s="1">
@@ -28969,14 +28967,14 @@
         <v>1</v>
       </c>
       <c r="D112" s="1">
-        <f>C112*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G112" s="1">
@@ -28994,14 +28992,14 @@
         <v>1</v>
       </c>
       <c r="D113" s="1">
-        <f>C113*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G113" s="1">
@@ -29019,14 +29017,14 @@
         <v>1</v>
       </c>
       <c r="D114" s="1">
-        <f>C114*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G114" s="1">
@@ -29044,14 +29042,14 @@
         <v>1</v>
       </c>
       <c r="D115" s="1">
-        <f>C115*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G115" s="1">
@@ -29069,14 +29067,14 @@
         <v>1</v>
       </c>
       <c r="D116" s="1">
-        <f>C116*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E116" s="1">
         <v>0.5</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G116" s="1">
@@ -29094,14 +29092,14 @@
         <v>1</v>
       </c>
       <c r="D117" s="1">
-        <f>C117*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G117" s="1">
@@ -29119,14 +29117,14 @@
         <v>1</v>
       </c>
       <c r="D118" s="1">
-        <f>C118*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G118" s="1">
@@ -29144,14 +29142,14 @@
         <v>1</v>
       </c>
       <c r="D119" s="1">
-        <f>C119*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G119" s="1">
@@ -29169,14 +29167,14 @@
         <v>1</v>
       </c>
       <c r="D120" s="1">
-        <f>C120*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G120" s="1">
@@ -29194,14 +29192,14 @@
         <v>1</v>
       </c>
       <c r="D121" s="1">
-        <f>C121*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E121" s="1">
         <v>0.5</v>
       </c>
       <c r="F121" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G121" s="1">
@@ -29219,14 +29217,14 @@
         <v>1</v>
       </c>
       <c r="D122" s="1">
-        <f>C122*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E122" s="1">
         <v>0.5</v>
       </c>
       <c r="F122" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G122" s="1">
@@ -29244,14 +29242,14 @@
         <v>1</v>
       </c>
       <c r="D123" s="1">
-        <f>C123*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
       </c>
       <c r="F123" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G123" s="1">
@@ -29269,14 +29267,14 @@
         <v>0.73267326732673266</v>
       </c>
       <c r="D124" s="1">
-        <f>C124*100</f>
+        <f t="shared" si="2"/>
         <v>73.267326732673268</v>
       </c>
       <c r="E124" s="1">
         <v>0.86885245901639341</v>
       </c>
       <c r="F124" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>86.885245901639337</v>
       </c>
       <c r="G124" s="1">
@@ -29294,14 +29292,14 @@
         <v>1</v>
       </c>
       <c r="D125" s="1">
-        <f>C125*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
       </c>
       <c r="F125" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G125" s="1">
@@ -29319,14 +29317,14 @@
         <v>1</v>
       </c>
       <c r="D126" s="1">
-        <f>C126*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
       </c>
       <c r="F126" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G126" s="1">
@@ -29344,14 +29342,14 @@
         <v>1</v>
       </c>
       <c r="D127" s="1">
-        <f>C127*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
       </c>
       <c r="F127" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G127" s="1">
@@ -29369,14 +29367,14 @@
         <v>1</v>
       </c>
       <c r="D128" s="1">
-        <f>C128*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
       </c>
       <c r="F128" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G128" s="1">
@@ -29394,14 +29392,14 @@
         <v>1</v>
       </c>
       <c r="D129" s="1">
-        <f>C129*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E129" s="1">
         <v>0.5</v>
       </c>
       <c r="F129" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G129" s="1">
@@ -29419,14 +29417,14 @@
         <v>1</v>
       </c>
       <c r="D130" s="1">
-        <f>C130*100</f>
+        <f t="shared" ref="D130:D193" si="4">C130*100</f>
         <v>100</v>
       </c>
       <c r="E130" s="1">
         <v>0.5</v>
       </c>
       <c r="F130" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="G130" s="1">
@@ -29444,14 +29442,14 @@
         <v>1</v>
       </c>
       <c r="D131" s="1">
-        <f>C131*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E131" s="1">
         <v>0.5</v>
       </c>
       <c r="F131" s="1">
-        <f t="shared" ref="F131:F194" si="2">E131*100</f>
+        <f t="shared" ref="F131:F194" si="5">E131*100</f>
         <v>50</v>
       </c>
       <c r="G131" s="1">
@@ -29469,14 +29467,14 @@
         <v>1</v>
       </c>
       <c r="D132" s="1">
-        <f>C132*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E132" s="1">
         <v>0.5</v>
       </c>
       <c r="F132" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G132" s="1">
@@ -29494,14 +29492,14 @@
         <v>1</v>
       </c>
       <c r="D133" s="1">
-        <f>C133*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E133" s="1">
         <v>0.5</v>
       </c>
       <c r="F133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G133" s="1">
@@ -29519,14 +29517,14 @@
         <v>1</v>
       </c>
       <c r="D134" s="1">
-        <f>C134*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
       <c r="F134" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G134" s="1">
@@ -29544,14 +29542,14 @@
         <v>1</v>
       </c>
       <c r="D135" s="1">
-        <f>C135*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E135" s="1">
         <v>0.5</v>
       </c>
       <c r="F135" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G135" s="1">
@@ -29569,14 +29567,14 @@
         <v>1</v>
       </c>
       <c r="D136" s="1">
-        <f>C136*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E136" s="1">
         <v>0.5</v>
       </c>
       <c r="F136" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G136" s="1">
@@ -29594,14 +29592,14 @@
         <v>0.89913544668587897</v>
       </c>
       <c r="D137" s="1">
-        <f>C137*100</f>
+        <f t="shared" si="4"/>
         <v>89.913544668587903</v>
       </c>
       <c r="E137" s="1">
         <v>0.96296296296296291</v>
       </c>
       <c r="F137" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>96.296296296296291</v>
       </c>
       <c r="G137" s="1">
@@ -29619,14 +29617,14 @@
         <v>1</v>
       </c>
       <c r="D138" s="1">
-        <f>C138*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E138" s="1">
         <v>0.5</v>
       </c>
       <c r="F138" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G138" s="1">
@@ -29644,14 +29642,14 @@
         <v>1</v>
       </c>
       <c r="D139" s="1">
-        <f>C139*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
       </c>
       <c r="F139" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G139" s="1">
@@ -29669,14 +29667,14 @@
         <v>1</v>
       </c>
       <c r="D140" s="1">
-        <f>C140*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E140" s="1">
         <v>1</v>
       </c>
       <c r="F140" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G140" s="1">
@@ -29694,14 +29692,14 @@
         <v>1</v>
       </c>
       <c r="D141" s="1">
-        <f>C141*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E141" s="1">
         <v>1</v>
       </c>
       <c r="F141" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G141" s="1">
@@ -29719,14 +29717,14 @@
         <v>1</v>
       </c>
       <c r="D142" s="1">
-        <f>C142*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E142" s="1">
         <v>0.5</v>
       </c>
       <c r="F142" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G142" s="1">
@@ -29744,14 +29742,14 @@
         <v>1</v>
       </c>
       <c r="D143" s="1">
-        <f>C143*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E143" s="1">
         <v>0.5</v>
       </c>
       <c r="F143" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G143" s="1">
@@ -29769,14 +29767,14 @@
         <v>1</v>
       </c>
       <c r="D144" s="1">
-        <f>C144*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E144" s="1">
         <v>0.5</v>
       </c>
       <c r="F144" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G144" s="1">
@@ -29794,14 +29792,14 @@
         <v>1</v>
       </c>
       <c r="D145" s="1">
-        <f>C145*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
       </c>
       <c r="F145" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G145" s="1">
@@ -29819,14 +29817,14 @@
         <v>1</v>
       </c>
       <c r="D146" s="1">
-        <f>C146*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E146" s="1">
         <v>0.5</v>
       </c>
       <c r="F146" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G146" s="1">
@@ -29844,14 +29842,14 @@
         <v>1</v>
       </c>
       <c r="D147" s="1">
-        <f>C147*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
       </c>
       <c r="F147" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G147" s="1">
@@ -29869,14 +29867,14 @@
         <v>1</v>
       </c>
       <c r="D148" s="1">
-        <f>C148*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E148" s="1">
         <v>0.5</v>
       </c>
       <c r="F148" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G148" s="1">
@@ -29894,14 +29892,14 @@
         <v>1</v>
       </c>
       <c r="D149" s="1">
-        <f>C149*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E149" s="1">
         <v>0</v>
       </c>
       <c r="F149" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G149" s="1">
@@ -29919,14 +29917,14 @@
         <v>1</v>
       </c>
       <c r="D150" s="1">
-        <f>C150*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
       </c>
       <c r="F150" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G150" s="1">
@@ -29944,14 +29942,14 @@
         <v>1</v>
       </c>
       <c r="D151" s="1">
-        <f>C151*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E151" s="1">
         <v>0.5</v>
       </c>
       <c r="F151" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G151" s="1">
@@ -29969,14 +29967,14 @@
         <v>1</v>
       </c>
       <c r="D152" s="1">
-        <f>C152*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E152" s="1">
         <v>0</v>
       </c>
       <c r="F152" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G152" s="1">
@@ -29994,14 +29992,14 @@
         <v>1</v>
       </c>
       <c r="D153" s="1">
-        <f>C153*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E153" s="1">
         <v>0</v>
       </c>
       <c r="F153" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G153" s="1">
@@ -30019,14 +30017,14 @@
         <v>1</v>
       </c>
       <c r="D154" s="1">
-        <f>C154*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E154" s="1">
         <v>0</v>
       </c>
       <c r="F154" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G154" s="1">
@@ -30044,14 +30042,14 @@
         <v>1</v>
       </c>
       <c r="D155" s="1">
-        <f>C155*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E155" s="1">
         <v>0.5</v>
       </c>
       <c r="F155" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G155" s="1">
@@ -30069,14 +30067,14 @@
         <v>1</v>
       </c>
       <c r="D156" s="1">
-        <f>C156*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E156" s="1">
         <v>0</v>
       </c>
       <c r="F156" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G156" s="1">
@@ -30094,14 +30092,14 @@
         <v>1</v>
       </c>
       <c r="D157" s="1">
-        <f>C157*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E157" s="1">
         <v>1</v>
       </c>
       <c r="F157" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G157" s="1">
@@ -30119,14 +30117,14 @@
         <v>1</v>
       </c>
       <c r="D158" s="1">
-        <f>C158*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E158" s="1">
         <v>0</v>
       </c>
       <c r="F158" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G158" s="1">
@@ -30144,14 +30142,14 @@
         <v>1</v>
       </c>
       <c r="D159" s="1">
-        <f>C159*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E159" s="1">
         <v>1</v>
       </c>
       <c r="F159" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G159" s="1">
@@ -30169,14 +30167,14 @@
         <v>1</v>
       </c>
       <c r="D160" s="1">
-        <f>C160*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E160" s="1">
         <v>0.5</v>
       </c>
       <c r="F160" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G160" s="1">
@@ -30194,14 +30192,14 @@
         <v>1</v>
       </c>
       <c r="D161" s="1">
-        <f>C161*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E161" s="1">
         <v>0</v>
       </c>
       <c r="F161" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G161" s="1">
@@ -30219,14 +30217,14 @@
         <v>1</v>
       </c>
       <c r="D162" s="1">
-        <f>C162*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E162" s="1">
         <v>0.5</v>
       </c>
       <c r="F162" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G162" s="1">
@@ -30244,14 +30242,14 @@
         <v>1</v>
       </c>
       <c r="D163" s="1">
-        <f>C163*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E163" s="1">
         <v>1</v>
       </c>
       <c r="F163" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G163" s="1">
@@ -30269,14 +30267,14 @@
         <v>1</v>
       </c>
       <c r="D164" s="1">
-        <f>C164*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E164" s="1">
         <v>0.5</v>
       </c>
       <c r="F164" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G164" s="1">
@@ -30294,14 +30292,14 @@
         <v>1</v>
       </c>
       <c r="D165" s="1">
-        <f>C165*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E165" s="1">
         <v>0</v>
       </c>
       <c r="F165" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G165" s="1">
@@ -30319,14 +30317,14 @@
         <v>1</v>
       </c>
       <c r="D166" s="1">
-        <f>C166*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E166" s="1">
         <v>1</v>
       </c>
       <c r="F166" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G166" s="1">
@@ -30344,14 +30342,14 @@
         <v>1</v>
       </c>
       <c r="D167" s="1">
-        <f>C167*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E167" s="1">
         <v>0</v>
       </c>
       <c r="F167" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G167" s="1">
@@ -30369,14 +30367,14 @@
         <v>1</v>
       </c>
       <c r="D168" s="1">
-        <f>C168*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E168" s="1">
         <v>0</v>
       </c>
       <c r="F168" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G168" s="1">
@@ -30394,14 +30392,14 @@
         <v>1</v>
       </c>
       <c r="D169" s="1">
-        <f>C169*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E169" s="1">
         <v>0.5</v>
       </c>
       <c r="F169" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G169" s="1">
@@ -30419,14 +30417,14 @@
         <v>1</v>
       </c>
       <c r="D170" s="1">
-        <f>C170*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E170" s="1">
         <v>1</v>
       </c>
       <c r="F170" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G170" s="1">
@@ -30444,14 +30442,14 @@
         <v>1</v>
       </c>
       <c r="D171" s="1">
-        <f>C171*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E171" s="1">
         <v>0</v>
       </c>
       <c r="F171" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G171" s="1">
@@ -30469,14 +30467,14 @@
         <v>1</v>
       </c>
       <c r="D172" s="1">
-        <f>C172*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E172" s="1">
         <v>0</v>
       </c>
       <c r="F172" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G172" s="1">
@@ -30494,14 +30492,14 @@
         <v>1</v>
       </c>
       <c r="D173" s="1">
-        <f>C173*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E173" s="1">
         <v>0</v>
       </c>
       <c r="F173" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G173" s="1">
@@ -30519,14 +30517,14 @@
         <v>1</v>
       </c>
       <c r="D174" s="1">
-        <f>C174*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E174" s="1">
         <v>0</v>
       </c>
       <c r="F174" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G174" s="1">
@@ -30544,14 +30542,14 @@
         <v>1</v>
       </c>
       <c r="D175" s="1">
-        <f>C175*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E175" s="1">
         <v>1</v>
       </c>
       <c r="F175" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G175" s="1">
@@ -30569,14 +30567,14 @@
         <v>1</v>
       </c>
       <c r="D176" s="1">
-        <f>C176*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E176" s="1">
         <v>0</v>
       </c>
       <c r="F176" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G176" s="1">
@@ -30594,14 +30592,14 @@
         <v>1</v>
       </c>
       <c r="D177" s="1">
-        <f>C177*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
       </c>
       <c r="F177" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G177" s="1">
@@ -30619,14 +30617,14 @@
         <v>1</v>
       </c>
       <c r="D178" s="1">
-        <f>C178*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E178" s="1">
         <v>0</v>
       </c>
       <c r="F178" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G178" s="1">
@@ -30644,14 +30642,14 @@
         <v>1</v>
       </c>
       <c r="D179" s="1">
-        <f>C179*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E179" s="1">
         <v>0.5</v>
       </c>
       <c r="F179" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G179" s="1">
@@ -30669,14 +30667,14 @@
         <v>1</v>
       </c>
       <c r="D180" s="1">
-        <f>C180*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E180" s="1">
         <v>0</v>
       </c>
       <c r="F180" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G180" s="1">
@@ -30694,14 +30692,14 @@
         <v>1</v>
       </c>
       <c r="D181" s="1">
-        <f>C181*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E181" s="1">
         <v>0</v>
       </c>
       <c r="F181" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G181" s="1">
@@ -30719,14 +30717,14 @@
         <v>1</v>
       </c>
       <c r="D182" s="1">
-        <f>C182*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E182" s="1">
         <v>0</v>
       </c>
       <c r="F182" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G182" s="1">
@@ -30744,14 +30742,14 @@
         <v>1</v>
       </c>
       <c r="D183" s="1">
-        <f>C183*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E183" s="1">
         <v>0</v>
       </c>
       <c r="F183" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G183" s="1">
@@ -30769,14 +30767,14 @@
         <v>1</v>
       </c>
       <c r="D184" s="1">
-        <f>C184*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E184" s="1">
         <v>1</v>
       </c>
       <c r="F184" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G184" s="1">
@@ -30794,14 +30792,14 @@
         <v>1</v>
       </c>
       <c r="D185" s="1">
-        <f>C185*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E185" s="1">
         <v>1</v>
       </c>
       <c r="F185" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G185" s="1">
@@ -30819,14 +30817,14 @@
         <v>1</v>
       </c>
       <c r="D186" s="1">
-        <f>C186*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E186" s="1">
         <v>1</v>
       </c>
       <c r="F186" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G186" s="1">
@@ -30844,14 +30842,14 @@
         <v>1</v>
       </c>
       <c r="D187" s="1">
-        <f>C187*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E187" s="1">
         <v>0.5</v>
       </c>
       <c r="F187" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G187" s="1">
@@ -30869,14 +30867,14 @@
         <v>1</v>
       </c>
       <c r="D188" s="1">
-        <f>C188*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E188" s="1">
         <v>1</v>
       </c>
       <c r="F188" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G188" s="1">
@@ -30894,14 +30892,14 @@
         <v>1</v>
       </c>
       <c r="D189" s="1">
-        <f>C189*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
       </c>
       <c r="F189" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G189" s="1">
@@ -30919,14 +30917,14 @@
         <v>1</v>
       </c>
       <c r="D190" s="1">
-        <f>C190*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E190" s="1">
         <v>0.5</v>
       </c>
       <c r="F190" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G190" s="1">
@@ -30944,14 +30942,14 @@
         <v>1</v>
       </c>
       <c r="D191" s="1">
-        <f>C191*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E191" s="1">
         <v>0.5</v>
       </c>
       <c r="F191" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G191" s="1">
@@ -30969,14 +30967,14 @@
         <v>1</v>
       </c>
       <c r="D192" s="1">
-        <f>C192*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E192" s="1">
         <v>1</v>
       </c>
       <c r="F192" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="G192" s="1">
@@ -30994,14 +30992,14 @@
         <v>1</v>
       </c>
       <c r="D193" s="1">
-        <f>C193*100</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E193" s="1">
         <v>0.5</v>
       </c>
       <c r="F193" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G193" s="1">
@@ -31019,14 +31017,14 @@
         <v>1</v>
       </c>
       <c r="D194" s="1">
-        <f>C194*100</f>
+        <f t="shared" ref="D194:D257" si="6">C194*100</f>
         <v>100</v>
       </c>
       <c r="E194" s="1">
         <v>0</v>
       </c>
       <c r="F194" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G194" s="1">
@@ -31044,14 +31042,14 @@
         <v>1</v>
       </c>
       <c r="D195" s="1">
-        <f>C195*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E195" s="1">
         <v>0</v>
       </c>
       <c r="F195" s="1">
-        <f t="shared" ref="F195:F258" si="3">E195*100</f>
+        <f t="shared" ref="F195:F258" si="7">E195*100</f>
         <v>0</v>
       </c>
       <c r="G195" s="1">
@@ -31069,14 +31067,14 @@
         <v>1</v>
       </c>
       <c r="D196" s="1">
-        <f>C196*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E196" s="1">
         <v>0</v>
       </c>
       <c r="F196" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G196" s="1">
@@ -31094,14 +31092,14 @@
         <v>1</v>
       </c>
       <c r="D197" s="1">
-        <f>C197*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E197" s="1">
         <v>1</v>
       </c>
       <c r="F197" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G197" s="1">
@@ -31119,14 +31117,14 @@
         <v>1</v>
       </c>
       <c r="D198" s="1">
-        <f>C198*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E198" s="1">
         <v>1</v>
       </c>
       <c r="F198" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G198" s="1">
@@ -31144,14 +31142,14 @@
         <v>1</v>
       </c>
       <c r="D199" s="1">
-        <f>C199*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E199" s="1">
         <v>0</v>
       </c>
       <c r="F199" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G199" s="1">
@@ -31169,14 +31167,14 @@
         <v>1</v>
       </c>
       <c r="D200" s="1">
-        <f>C200*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E200" s="1">
         <v>0.5</v>
       </c>
       <c r="F200" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="G200" s="1">
@@ -31194,14 +31192,14 @@
         <v>1</v>
       </c>
       <c r="D201" s="1">
-        <f>C201*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
       </c>
       <c r="F201" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G201" s="1">
@@ -31219,14 +31217,14 @@
         <v>1</v>
       </c>
       <c r="D202" s="1">
-        <f>C202*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E202" s="1">
         <v>0</v>
       </c>
       <c r="F202" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G202" s="1">
@@ -31244,14 +31242,14 @@
         <v>1</v>
       </c>
       <c r="D203" s="1">
-        <f>C203*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E203" s="1">
         <v>1</v>
       </c>
       <c r="F203" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G203" s="1">
@@ -31269,14 +31267,14 @@
         <v>1</v>
       </c>
       <c r="D204" s="1">
-        <f>C204*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E204" s="1">
         <v>0.5</v>
       </c>
       <c r="F204" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="G204" s="1">
@@ -31294,14 +31292,14 @@
         <v>1</v>
       </c>
       <c r="D205" s="1">
-        <f>C205*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E205" s="1">
         <v>0</v>
       </c>
       <c r="F205" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G205" s="1">
@@ -31319,14 +31317,14 @@
         <v>1</v>
       </c>
       <c r="D206" s="1">
-        <f>C206*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
       </c>
       <c r="F206" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G206" s="1">
@@ -31344,14 +31342,14 @@
         <v>1</v>
       </c>
       <c r="D207" s="1">
-        <f>C207*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E207" s="1">
         <v>1</v>
       </c>
       <c r="F207" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G207" s="1">
@@ -31369,14 +31367,14 @@
         <v>1</v>
       </c>
       <c r="D208" s="1">
-        <f>C208*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E208" s="1">
         <v>0</v>
       </c>
       <c r="F208" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G208" s="1">
@@ -31394,14 +31392,14 @@
         <v>1</v>
       </c>
       <c r="D209" s="1">
-        <f>C209*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E209" s="1">
         <v>1</v>
       </c>
       <c r="F209" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G209" s="1">
@@ -31419,14 +31417,14 @@
         <v>1</v>
       </c>
       <c r="D210" s="1">
-        <f>C210*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E210" s="1">
         <v>0</v>
       </c>
       <c r="F210" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G210" s="1">
@@ -31444,14 +31442,14 @@
         <v>1</v>
       </c>
       <c r="D211" s="1">
-        <f>C211*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E211" s="1">
         <v>1</v>
       </c>
       <c r="F211" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G211" s="1">
@@ -31469,14 +31467,14 @@
         <v>1</v>
       </c>
       <c r="D212" s="1">
-        <f>C212*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E212" s="1">
         <v>1</v>
       </c>
       <c r="F212" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G212" s="1">
@@ -31494,14 +31492,14 @@
         <v>1</v>
       </c>
       <c r="D213" s="1">
-        <f>C213*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E213" s="1">
         <v>1</v>
       </c>
       <c r="F213" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G213" s="1">
@@ -31519,14 +31517,14 @@
         <v>1</v>
       </c>
       <c r="D214" s="1">
-        <f>C214*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E214" s="1">
         <v>1</v>
       </c>
       <c r="F214" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G214" s="1">
@@ -31544,14 +31542,14 @@
         <v>1</v>
       </c>
       <c r="D215" s="1">
-        <f>C215*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E215" s="1">
         <v>1</v>
       </c>
       <c r="F215" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G215" s="1">
@@ -31569,14 +31567,14 @@
         <v>1</v>
       </c>
       <c r="D216" s="1">
-        <f>C216*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E216" s="1">
         <v>1</v>
       </c>
       <c r="F216" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G216" s="1">
@@ -31594,14 +31592,14 @@
         <v>1</v>
       </c>
       <c r="D217" s="1">
-        <f>C217*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E217" s="1">
         <v>1</v>
       </c>
       <c r="F217" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G217" s="1">
@@ -31619,14 +31617,14 @@
         <v>1</v>
       </c>
       <c r="D218" s="1">
-        <f>C218*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E218" s="1">
         <v>1</v>
       </c>
       <c r="F218" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G218" s="1">
@@ -31644,14 +31642,14 @@
         <v>1</v>
       </c>
       <c r="D219" s="1">
-        <f>C219*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E219" s="1">
         <v>0.5</v>
       </c>
       <c r="F219" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="G219" s="1">
@@ -31669,14 +31667,14 @@
         <v>1</v>
       </c>
       <c r="D220" s="1">
-        <f>C220*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E220" s="1">
         <v>1</v>
       </c>
       <c r="F220" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G220" s="1">
@@ -31694,14 +31692,14 @@
         <v>1</v>
       </c>
       <c r="D221" s="1">
-        <f>C221*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E221" s="1">
         <v>1</v>
       </c>
       <c r="F221" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G221" s="1">
@@ -31719,14 +31717,14 @@
         <v>1</v>
       </c>
       <c r="D222" s="1">
-        <f>C222*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E222" s="1">
         <v>1</v>
       </c>
       <c r="F222" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G222" s="1">
@@ -31744,14 +31742,14 @@
         <v>1</v>
       </c>
       <c r="D223" s="1">
-        <f>C223*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E223" s="1">
         <v>1</v>
       </c>
       <c r="F223" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G223" s="1">
@@ -31769,14 +31767,14 @@
         <v>1</v>
       </c>
       <c r="D224" s="1">
-        <f>C224*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E224" s="1">
         <v>1</v>
       </c>
       <c r="F224" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G224" s="1">
@@ -31794,14 +31792,14 @@
         <v>1</v>
       </c>
       <c r="D225" s="1">
-        <f>C225*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E225" s="1">
         <v>0.5</v>
       </c>
       <c r="F225" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="G225" s="1">
@@ -31819,14 +31817,14 @@
         <v>1</v>
       </c>
       <c r="D226" s="1">
-        <f>C226*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E226" s="1">
         <v>1</v>
       </c>
       <c r="F226" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G226" s="1">
@@ -31844,14 +31842,14 @@
         <v>1</v>
       </c>
       <c r="D227" s="1">
-        <f>C227*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E227" s="1">
         <v>0</v>
       </c>
       <c r="F227" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G227" s="1">
@@ -31869,14 +31867,14 @@
         <v>1</v>
       </c>
       <c r="D228" s="1">
-        <f>C228*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E228" s="1">
         <v>1</v>
       </c>
       <c r="F228" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G228" s="1">
@@ -31894,14 +31892,14 @@
         <v>1</v>
       </c>
       <c r="D229" s="1">
-        <f>C229*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E229" s="1">
         <v>1</v>
       </c>
       <c r="F229" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G229" s="1">
@@ -31919,14 +31917,14 @@
         <v>1</v>
       </c>
       <c r="D230" s="1">
-        <f>C230*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E230" s="1">
         <v>0.5</v>
       </c>
       <c r="F230" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="G230" s="1">
@@ -31944,14 +31942,14 @@
         <v>1</v>
       </c>
       <c r="D231" s="1">
-        <f>C231*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E231" s="1">
         <v>1</v>
       </c>
       <c r="F231" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G231" s="1">
@@ -31969,14 +31967,14 @@
         <v>1</v>
       </c>
       <c r="D232" s="1">
-        <f>C232*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E232" s="1">
         <v>1</v>
       </c>
       <c r="F232" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G232" s="1">
@@ -31994,14 +31992,14 @@
         <v>1</v>
       </c>
       <c r="D233" s="1">
-        <f>C233*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E233" s="1">
         <v>1</v>
       </c>
       <c r="F233" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G233" s="1">
@@ -32019,14 +32017,14 @@
         <v>0.66408268733850129</v>
       </c>
       <c r="D234" s="1">
-        <f>C234*100</f>
+        <f t="shared" si="6"/>
         <v>66.408268733850122</v>
       </c>
       <c r="E234" s="1">
         <v>0.83333333333333337</v>
       </c>
       <c r="F234" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>83.333333333333343</v>
       </c>
       <c r="G234" s="1">
@@ -32044,14 +32042,14 @@
         <v>0.5</v>
       </c>
       <c r="D235" s="1">
-        <f>C235*100</f>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="E235" s="1">
         <v>1</v>
       </c>
       <c r="F235" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G235" s="1">
@@ -32069,14 +32067,14 @@
         <v>1</v>
       </c>
       <c r="D236" s="1">
-        <f>C236*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E236" s="1">
         <v>0</v>
       </c>
       <c r="F236" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G236" s="1">
@@ -32094,14 +32092,14 @@
         <v>1</v>
       </c>
       <c r="D237" s="1">
-        <f>C237*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E237" s="1">
         <v>1</v>
       </c>
       <c r="F237" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G237" s="1">
@@ -32119,14 +32117,14 @@
         <v>1</v>
       </c>
       <c r="D238" s="1">
-        <f>C238*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E238" s="1">
         <v>1</v>
       </c>
       <c r="F238" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G238" s="1">
@@ -32144,14 +32142,14 @@
         <v>1</v>
       </c>
       <c r="D239" s="1">
-        <f>C239*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E239" s="1">
         <v>1</v>
       </c>
       <c r="F239" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G239" s="1">
@@ -32169,14 +32167,14 @@
         <v>1</v>
       </c>
       <c r="D240" s="1">
-        <f>C240*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E240" s="1">
         <v>1</v>
       </c>
       <c r="F240" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G240" s="1">
@@ -32194,14 +32192,14 @@
         <v>1</v>
       </c>
       <c r="D241" s="1">
-        <f>C241*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E241" s="1">
         <v>1</v>
       </c>
       <c r="F241" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G241" s="1">
@@ -32219,14 +32217,14 @@
         <v>1</v>
       </c>
       <c r="D242" s="1">
-        <f>C242*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E242" s="1">
         <v>1</v>
       </c>
       <c r="F242" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G242" s="1">
@@ -32244,14 +32242,14 @@
         <v>1</v>
       </c>
       <c r="D243" s="1">
-        <f>C243*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E243" s="1">
         <v>1</v>
       </c>
       <c r="F243" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G243" s="1">
@@ -32269,14 +32267,14 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D244" s="1">
-        <f>C244*100</f>
+        <f t="shared" si="6"/>
         <v>83.333333333333343</v>
       </c>
       <c r="E244" s="1">
         <v>0.93557422969187676</v>
       </c>
       <c r="F244" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>93.55742296918767</v>
       </c>
       <c r="G244" s="1">
@@ -32294,14 +32292,14 @@
         <v>1</v>
       </c>
       <c r="D245" s="1">
-        <f>C245*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E245" s="1">
         <v>0.75</v>
       </c>
       <c r="F245" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="G245" s="1">
@@ -32319,14 +32317,14 @@
         <v>1</v>
       </c>
       <c r="D246" s="1">
-        <f>C246*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E246" s="1">
         <v>0</v>
       </c>
       <c r="F246" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G246" s="1">
@@ -32344,14 +32342,14 @@
         <v>0.89393939393939392</v>
       </c>
       <c r="D247" s="1">
-        <f>C247*100</f>
+        <f t="shared" si="6"/>
         <v>89.393939393939391</v>
       </c>
       <c r="E247" s="1">
         <v>0.97841726618705038</v>
       </c>
       <c r="F247" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>97.841726618705039</v>
       </c>
       <c r="G247" s="1">
@@ -32369,14 +32367,14 @@
         <v>0.5</v>
       </c>
       <c r="D248" s="1">
-        <f>C248*100</f>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="E248" s="1">
         <v>1</v>
       </c>
       <c r="F248" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G248" s="1">
@@ -32394,14 +32392,14 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D249" s="1">
-        <f>C249*100</f>
+        <f t="shared" si="6"/>
         <v>72.222222222222214</v>
       </c>
       <c r="E249" s="1">
         <v>0.91176470588235292</v>
       </c>
       <c r="F249" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>91.17647058823529</v>
       </c>
       <c r="G249" s="1">
@@ -32419,14 +32417,14 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="D250" s="1">
-        <f>C250*100</f>
+        <f t="shared" si="6"/>
         <v>64.285714285714292</v>
       </c>
       <c r="E250" s="1">
         <v>0.82499999999999996</v>
       </c>
       <c r="F250" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>82.5</v>
       </c>
       <c r="G250" s="1">
@@ -32444,14 +32442,14 @@
         <v>0.5</v>
       </c>
       <c r="D251" s="1">
-        <f>C251*100</f>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="E251" s="1">
         <v>1</v>
       </c>
       <c r="F251" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G251" s="1">
@@ -32469,14 +32467,14 @@
         <v>1</v>
       </c>
       <c r="D252" s="1">
-        <f>C252*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E252" s="1">
         <v>1</v>
       </c>
       <c r="F252" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G252" s="1">
@@ -32494,14 +32492,14 @@
         <v>1</v>
       </c>
       <c r="D253" s="1">
-        <f>C253*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E253" s="1">
         <v>1</v>
       </c>
       <c r="F253" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G253" s="1">
@@ -32519,14 +32517,14 @@
         <v>0.59375</v>
       </c>
       <c r="D254" s="1">
-        <f>C254*100</f>
+        <f t="shared" si="6"/>
         <v>59.375</v>
       </c>
       <c r="E254" s="1">
         <v>0.83673469387755106</v>
       </c>
       <c r="F254" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>83.673469387755105</v>
       </c>
       <c r="G254" s="1">
@@ -32544,14 +32542,14 @@
         <v>1</v>
       </c>
       <c r="D255" s="1">
-        <f>C255*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E255" s="1">
         <v>0.42857142857142855</v>
       </c>
       <c r="F255" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>42.857142857142854</v>
       </c>
       <c r="G255" s="1">
@@ -32569,14 +32567,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D256" s="1">
-        <f>C256*100</f>
+        <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
       <c r="E256" s="1">
         <v>0.73913043478260865</v>
       </c>
       <c r="F256" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>73.91304347826086</v>
       </c>
       <c r="G256" s="1">
@@ -32594,14 +32592,14 @@
         <v>1</v>
       </c>
       <c r="D257" s="1">
-        <f>C257*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E257" s="1">
         <v>1</v>
       </c>
       <c r="F257" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G257" s="1">
@@ -32619,14 +32617,14 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D258" s="1">
-        <f>C258*100</f>
+        <f t="shared" ref="D258:D321" si="8">C258*100</f>
         <v>79.166666666666657</v>
       </c>
       <c r="E258" s="1">
         <v>0.97959183673469385</v>
       </c>
       <c r="F258" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>97.959183673469383</v>
       </c>
       <c r="G258" s="1">
@@ -32644,14 +32642,14 @@
         <v>0.75</v>
       </c>
       <c r="D259" s="1">
-        <f>C259*100</f>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="E259" s="1">
         <v>0.94117647058823528</v>
       </c>
       <c r="F259" s="1">
-        <f t="shared" ref="F259:F322" si="4">E259*100</f>
+        <f t="shared" ref="F259:F322" si="9">E259*100</f>
         <v>94.117647058823522</v>
       </c>
       <c r="G259" s="1">
@@ -32669,14 +32667,14 @@
         <v>1</v>
       </c>
       <c r="D260" s="1">
-        <f>C260*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E260" s="1">
         <v>0</v>
       </c>
       <c r="F260" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G260" s="1">
@@ -32694,14 +32692,14 @@
         <v>1</v>
       </c>
       <c r="D261" s="1">
-        <f>C261*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E261" s="1">
         <v>0.89473684210526316</v>
       </c>
       <c r="F261" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>89.473684210526315</v>
       </c>
       <c r="G261" s="1">
@@ -32719,14 +32717,14 @@
         <v>1</v>
       </c>
       <c r="D262" s="1">
-        <f>C262*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E262" s="1">
         <v>0.5</v>
       </c>
       <c r="F262" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="G262" s="1">
@@ -32744,14 +32742,14 @@
         <v>1</v>
       </c>
       <c r="D263" s="1">
-        <f>C263*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E263" s="1">
         <v>1</v>
       </c>
       <c r="F263" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="G263" s="1">
@@ -32769,14 +32767,14 @@
         <v>0.8</v>
       </c>
       <c r="D264" s="1">
-        <f>C264*100</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="E264" s="1">
         <v>0.89473684210526316</v>
       </c>
       <c r="F264" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>89.473684210526315</v>
       </c>
       <c r="G264" s="1">
@@ -32794,14 +32792,14 @@
         <v>1</v>
       </c>
       <c r="D265" s="1">
-        <f>C265*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E265" s="1">
         <v>1</v>
       </c>
       <c r="F265" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="G265" s="1">
@@ -32819,14 +32817,14 @@
         <v>1</v>
       </c>
       <c r="D266" s="1">
-        <f>C266*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E266" s="1">
         <v>1</v>
       </c>
       <c r="F266" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="G266" s="1">
@@ -32844,14 +32842,14 @@
         <v>0.61538461538461542</v>
       </c>
       <c r="D267" s="1">
-        <f>C267*100</f>
+        <f t="shared" si="8"/>
         <v>61.53846153846154</v>
       </c>
       <c r="E267" s="1">
         <v>0.93846153846153846</v>
       </c>
       <c r="F267" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>93.84615384615384</v>
       </c>
       <c r="G267" s="1">
@@ -32869,14 +32867,14 @@
         <v>1</v>
       </c>
       <c r="D268" s="1">
-        <f>C268*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E268" s="1">
         <v>0</v>
       </c>
       <c r="F268" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G268" s="1">
@@ -32894,14 +32892,14 @@
         <v>1</v>
       </c>
       <c r="D269" s="1">
-        <f>C269*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E269" s="1">
         <v>0</v>
       </c>
       <c r="F269" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G269" s="1">
@@ -32919,14 +32917,14 @@
         <v>1</v>
       </c>
       <c r="D270" s="1">
-        <f>C270*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E270" s="1">
         <v>0</v>
       </c>
       <c r="F270" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G270" s="1">
@@ -32944,14 +32942,14 @@
         <v>0</v>
       </c>
       <c r="D271" s="1">
-        <f>C271*100</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E271" s="1">
         <v>0</v>
       </c>
       <c r="F271" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G271" s="1">
@@ -32969,14 +32967,14 @@
         <v>1</v>
       </c>
       <c r="D272" s="1">
-        <f>C272*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E272" s="1">
         <v>0</v>
       </c>
       <c r="F272" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G272" s="1">
@@ -32994,14 +32992,14 @@
         <v>1</v>
       </c>
       <c r="D273" s="1">
-        <f>C273*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E273" s="1">
         <v>0</v>
       </c>
       <c r="F273" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G273" s="1">
@@ -33019,14 +33017,14 @@
         <v>1</v>
       </c>
       <c r="D274" s="1">
-        <f>C274*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E274" s="1">
         <v>0</v>
       </c>
       <c r="F274" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G274" s="1">
@@ -33044,14 +33042,14 @@
         <v>0</v>
       </c>
       <c r="D275" s="1">
-        <f>C275*100</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E275" s="1">
         <v>0</v>
       </c>
       <c r="F275" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G275" s="1">
@@ -33069,14 +33067,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D276" s="1">
-        <f>C276*100</f>
+        <f t="shared" si="8"/>
         <v>91.666666666666657</v>
       </c>
       <c r="E276" s="1">
         <v>0.93220338983050843</v>
       </c>
       <c r="F276" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>93.220338983050837</v>
       </c>
       <c r="G276" s="1">
@@ -33094,14 +33092,14 @@
         <v>0.71875</v>
       </c>
       <c r="D277" s="1">
-        <f>C277*100</f>
+        <f t="shared" si="8"/>
         <v>71.875</v>
       </c>
       <c r="E277" s="1">
         <v>0.86250000000000004</v>
       </c>
       <c r="F277" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>86.25</v>
       </c>
       <c r="G277" s="1">
@@ -33119,14 +33117,14 @@
         <v>0.66375545851528384</v>
       </c>
       <c r="D278" s="1">
-        <f>C278*100</f>
+        <f t="shared" si="8"/>
         <v>66.375545851528386</v>
       </c>
       <c r="E278" s="1">
         <v>0.85028248587570621</v>
       </c>
       <c r="F278" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>85.028248587570616</v>
       </c>
       <c r="G278" s="1">
@@ -33144,14 +33142,14 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D279" s="1">
-        <f>C279*100</f>
+        <f t="shared" si="8"/>
         <v>83.333333333333343</v>
       </c>
       <c r="E279" s="1">
         <v>0.10909090909090909</v>
       </c>
       <c r="F279" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10.909090909090908</v>
       </c>
       <c r="G279" s="1">
@@ -33169,14 +33167,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D280" s="1">
-        <f>C280*100</f>
+        <f t="shared" si="8"/>
         <v>91.666666666666657</v>
       </c>
       <c r="E280" s="1">
         <v>1</v>
       </c>
       <c r="F280" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="G280" s="1">
@@ -33194,14 +33192,14 @@
         <v>0.9375</v>
       </c>
       <c r="D281" s="1">
-        <f>C281*100</f>
+        <f t="shared" si="8"/>
         <v>93.75</v>
       </c>
       <c r="E281" s="1">
         <v>0.9555555555555556</v>
       </c>
       <c r="F281" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>95.555555555555557</v>
       </c>
       <c r="G281" s="1">
@@ -33219,14 +33217,14 @@
         <v>1</v>
       </c>
       <c r="D282" s="1">
-        <f>C282*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E282" s="1">
         <v>0</v>
       </c>
       <c r="F282" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G282" s="1">
@@ -33244,14 +33242,14 @@
         <v>1</v>
       </c>
       <c r="D283" s="1">
-        <f>C283*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E283" s="1">
         <v>0.967741935483871</v>
       </c>
       <c r="F283" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>96.774193548387103</v>
       </c>
       <c r="G283" s="1">
@@ -33269,14 +33267,14 @@
         <v>1</v>
       </c>
       <c r="D284" s="1">
-        <f>C284*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E284" s="1">
         <v>1</v>
       </c>
       <c r="F284" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="G284" s="1">
@@ -33294,14 +33292,14 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="D285" s="1">
-        <f>C285*100</f>
+        <f t="shared" si="8"/>
         <v>92.857142857142861</v>
       </c>
       <c r="E285" s="1">
         <v>0.95</v>
       </c>
       <c r="F285" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="G285" s="1">
@@ -33319,14 +33317,14 @@
         <v>0</v>
       </c>
       <c r="D286" s="1">
-        <f>C286*100</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E286" s="1">
         <v>0</v>
       </c>
       <c r="F286" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G286" s="1">
@@ -33344,14 +33342,14 @@
         <v>0.88636363636363635</v>
       </c>
       <c r="D287" s="1">
-        <f>C287*100</f>
+        <f t="shared" si="8"/>
         <v>88.63636363636364</v>
       </c>
       <c r="E287" s="1">
         <v>0.95617529880478092</v>
       </c>
       <c r="F287" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>95.617529880478088</v>
       </c>
       <c r="G287" s="1">
@@ -33369,14 +33367,14 @@
         <v>0.97727272727272729</v>
       </c>
       <c r="D288" s="1">
-        <f>C288*100</f>
+        <f t="shared" si="8"/>
         <v>97.727272727272734</v>
       </c>
       <c r="E288" s="1">
         <v>1</v>
       </c>
       <c r="F288" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="G288" s="1">
@@ -33394,14 +33392,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D289" s="1">
-        <f>C289*100</f>
+        <f t="shared" si="8"/>
         <v>66.666666666666657</v>
       </c>
       <c r="E289" s="1">
         <v>0.79848484848484846</v>
       </c>
       <c r="F289" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>79.848484848484844</v>
       </c>
       <c r="G289" s="1">
@@ -33419,14 +33417,14 @@
         <v>0</v>
       </c>
       <c r="D290" s="1">
-        <f>C290*100</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E290" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="F290" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>16.666666666666664</v>
       </c>
       <c r="G290" s="1">
@@ -33444,14 +33442,14 @@
         <v>0</v>
       </c>
       <c r="D291" s="1">
-        <f>C291*100</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E291" s="1">
         <v>0</v>
       </c>
       <c r="F291" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G291" s="1">
@@ -33469,14 +33467,14 @@
         <v>0.5</v>
       </c>
       <c r="D292" s="1">
-        <f>C292*100</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="E292" s="1">
         <v>0.5</v>
       </c>
       <c r="F292" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="G292" s="1">
@@ -33494,14 +33492,14 @@
         <v>0.73750000000000004</v>
       </c>
       <c r="D293" s="1">
-        <f>C293*100</f>
+        <f t="shared" si="8"/>
         <v>73.75</v>
       </c>
       <c r="E293" s="1">
         <v>0.74193548387096775</v>
       </c>
       <c r="F293" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>74.193548387096769</v>
       </c>
       <c r="G293" s="1">
@@ -33519,14 +33517,14 @@
         <v>1</v>
       </c>
       <c r="D294" s="1">
-        <f>C294*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E294" s="1">
         <v>0</v>
       </c>
       <c r="F294" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G294" s="1">
@@ -33544,14 +33542,14 @@
         <v>0.84230769230769231</v>
       </c>
       <c r="D295" s="1">
-        <f>C295*100</f>
+        <f t="shared" si="8"/>
         <v>84.230769230769226</v>
       </c>
       <c r="E295" s="1">
         <v>0.95461912479740685</v>
       </c>
       <c r="F295" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>95.46191247974069</v>
       </c>
       <c r="G295" s="1">
@@ -33569,14 +33567,14 @@
         <v>1</v>
       </c>
       <c r="D296" s="1">
-        <f>C296*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E296" s="1">
         <v>0</v>
       </c>
       <c r="F296" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G296" s="1">
@@ -33594,14 +33592,14 @@
         <v>0.85195530726256985</v>
       </c>
       <c r="D297" s="1">
-        <f>C297*100</f>
+        <f t="shared" si="8"/>
         <v>85.19553072625699</v>
       </c>
       <c r="E297" s="1">
         <v>0.89087301587301593</v>
       </c>
       <c r="F297" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>89.087301587301596</v>
       </c>
       <c r="G297" s="1">
@@ -33619,14 +33617,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D298" s="1">
-        <f>C298*100</f>
+        <f t="shared" si="8"/>
         <v>33.333333333333329</v>
       </c>
       <c r="E298" s="1">
         <v>0.54545454545454541</v>
       </c>
       <c r="F298" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>54.54545454545454</v>
       </c>
       <c r="G298" s="1">
@@ -33644,14 +33642,14 @@
         <v>0</v>
       </c>
       <c r="D299" s="1">
-        <f>C299*100</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E299" s="1">
         <v>0</v>
       </c>
       <c r="F299" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G299" s="1">
@@ -33669,14 +33667,14 @@
         <v>1</v>
       </c>
       <c r="D300" s="1">
-        <f>C300*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E300" s="1">
         <v>1</v>
       </c>
       <c r="F300" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="G300" s="1">
@@ -33694,14 +33692,14 @@
         <v>1</v>
       </c>
       <c r="D301" s="1">
-        <f>C301*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E301" s="1">
         <v>1</v>
       </c>
       <c r="F301" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="G301" s="1">
@@ -33719,14 +33717,14 @@
         <v>1</v>
       </c>
       <c r="D302" s="1">
-        <f>C302*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E302" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="F302" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>33.333333333333329</v>
       </c>
       <c r="G302" s="1">
@@ -33744,14 +33742,14 @@
         <v>0.5</v>
       </c>
       <c r="D303" s="1">
-        <f>C303*100</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="E303" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="F303" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>66.666666666666657</v>
       </c>
       <c r="G303" s="1">
@@ -33769,14 +33767,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D304" s="1">
-        <f>C304*100</f>
+        <f t="shared" si="8"/>
         <v>33.333333333333329</v>
       </c>
       <c r="E304" s="1">
         <v>0.62666666666666671</v>
       </c>
       <c r="F304" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>62.666666666666671</v>
       </c>
       <c r="G304" s="1">
@@ -33794,14 +33792,14 @@
         <v>1</v>
       </c>
       <c r="D305" s="1">
-        <f>C305*100</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E305" s="1">
         <v>1</v>
       </c>
       <c r="F305" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="G305" s="1">
@@ -33819,14 +33817,14 @@
         <v>0.6696428571428571</v>
       </c>
       <c r="D306" s="1">
-        <f>C306*100</f>
+        <f t="shared" si="8"/>
         <v>66.964285714285708</v>
       </c>
       <c r="E306" s="1">
         <v>0.70892018779342725</v>
       </c>
       <c r="F306" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>70.89201877934272</v>
       </c>
       <c r="G306" s="1">
@@ -33844,14 +33842,14 @@
         <v>0.515625</v>
       </c>
       <c r="D307" s="1">
-        <f>C307*100</f>
+        <f t="shared" si="8"/>
         <v>51.5625</v>
       </c>
       <c r="E307" s="1">
         <v>0.92500000000000004</v>
       </c>
       <c r="F307" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>92.5</v>
       </c>
       <c r="G307" s="1">
@@ -33869,14 +33867,14 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D308" s="1">
-        <f>C308*100</f>
+        <f t="shared" si="8"/>
         <v>58.333333333333336</v>
       </c>
       <c r="E308" s="1">
         <v>0.68421052631578949</v>
       </c>
       <c r="F308" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>68.421052631578945</v>
       </c>
       <c r="G308" s="1">
@@ -33894,14 +33892,14 @@
         <v>0</v>
       </c>
       <c r="D309" s="1">
-        <f>C309*100</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E309" s="1">
         <v>0.2</v>
       </c>
       <c r="F309" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G309" s="1">
@@ -33919,14 +33917,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D310" s="1">
-        <f>C310*100</f>
+        <f t="shared" si="8"/>
         <v>41.666666666666671</v>
       </c>
       <c r="E310" s="1">
         <v>0.90322580645161288</v>
       </c>
       <c r="F310" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>90.322580645161281</v>
       </c>
       <c r="G310" s="1">
@@ -33944,14 +33942,14 @@
         <v>0</v>
       </c>
       <c r="D311" s="1">
-        <f>C311*100</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E311" s="1">
         <v>0</v>
       </c>
       <c r="F311" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G311" s="1">
@@ -33969,14 +33967,14 @@
         <v>0.93478260869565222</v>
       </c>
       <c r="D312" s="1">
-        <f>C312*100</f>
+        <f t="shared" si="8"/>
         <v>93.478260869565219</v>
       </c>
       <c r="E312" s="1">
         <v>0.83606557377049184</v>
       </c>
       <c r="F312" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>83.606557377049185</v>
       </c>
       <c r="G312" s="1">
@@ -33994,14 +33992,14 @@
         <v>0.86567164179104472</v>
       </c>
       <c r="D313" s="1">
-        <f>C313*100</f>
+        <f t="shared" si="8"/>
         <v>86.567164179104466</v>
       </c>
       <c r="E313" s="1">
         <v>0.91752577319587625</v>
       </c>
       <c r="F313" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>91.75257731958763</v>
       </c>
       <c r="G313" s="1">
@@ -34019,14 +34017,14 @@
         <v>0.73333333333333328</v>
       </c>
       <c r="D314" s="1">
-        <f>C314*100</f>
+        <f t="shared" si="8"/>
         <v>73.333333333333329</v>
       </c>
       <c r="E314" s="1">
         <v>0.92982456140350878</v>
       </c>
       <c r="F314" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>92.982456140350877</v>
       </c>
       <c r="G314" s="1">
@@ -34044,14 +34042,14 @@
         <v>0.41901408450704225</v>
       </c>
       <c r="D315" s="1">
-        <f>C315*100</f>
+        <f t="shared" si="8"/>
         <v>41.901408450704224</v>
       </c>
       <c r="E315" s="1">
         <v>0.89215686274509809</v>
       </c>
       <c r="F315" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>89.215686274509807</v>
       </c>
       <c r="G315" s="1">
@@ -34069,14 +34067,14 @@
         <v>0.46666666666666667</v>
       </c>
       <c r="D316" s="1">
-        <f>C316*100</f>
+        <f t="shared" si="8"/>
         <v>46.666666666666664</v>
       </c>
       <c r="E316" s="1">
         <v>0.82222222222222219</v>
       </c>
       <c r="F316" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>82.222222222222214</v>
       </c>
       <c r="G316" s="1">
@@ -34094,14 +34092,14 @@
         <v>0.45238095238095238</v>
       </c>
       <c r="D317" s="1">
-        <f>C317*100</f>
+        <f t="shared" si="8"/>
         <v>45.238095238095241</v>
       </c>
       <c r="E317" s="1">
         <v>0.81481481481481477</v>
       </c>
       <c r="F317" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>81.481481481481481</v>
       </c>
       <c r="G317" s="1">
@@ -34119,14 +34117,14 @@
         <v>0.5</v>
       </c>
       <c r="D318" s="1">
-        <f>C318*100</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="E318" s="1">
         <v>0.98675496688741726</v>
       </c>
       <c r="F318" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>98.675496688741731</v>
       </c>
       <c r="G318" s="1">
@@ -34144,14 +34142,14 @@
         <v>0.38271604938271603</v>
       </c>
       <c r="D319" s="1">
-        <f>C319*100</f>
+        <f t="shared" si="8"/>
         <v>38.271604938271601</v>
       </c>
       <c r="E319" s="1">
         <v>0.96</v>
       </c>
       <c r="F319" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="G319" s="1">
@@ -34169,14 +34167,14 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="D320" s="1">
-        <f>C320*100</f>
+        <f t="shared" si="8"/>
         <v>42.857142857142854</v>
       </c>
       <c r="E320" s="1">
         <v>0.90476190476190477</v>
       </c>
       <c r="F320" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>90.476190476190482</v>
       </c>
       <c r="G320" s="1">
@@ -34194,14 +34192,14 @@
         <v>0.39130434782608697</v>
       </c>
       <c r="D321" s="1">
-        <f>C321*100</f>
+        <f t="shared" si="8"/>
         <v>39.130434782608695</v>
       </c>
       <c r="E321" s="1">
         <v>0.8848920863309353</v>
       </c>
       <c r="F321" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>88.489208633093526</v>
       </c>
       <c r="G321" s="1">
@@ -34219,14 +34217,14 @@
         <v>0.43181818181818182</v>
       </c>
       <c r="D322" s="1">
-        <f>C322*100</f>
+        <f t="shared" ref="D322:D385" si="10">C322*100</f>
         <v>43.18181818181818</v>
       </c>
       <c r="E322" s="1">
         <v>0.98039215686274506</v>
       </c>
       <c r="F322" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>98.039215686274503</v>
       </c>
       <c r="G322" s="1">
@@ -34244,14 +34242,14 @@
         <v>0.43478260869565216</v>
       </c>
       <c r="D323" s="1">
-        <f>C323*100</f>
+        <f t="shared" si="10"/>
         <v>43.478260869565219</v>
       </c>
       <c r="E323" s="1">
         <v>0.94</v>
       </c>
       <c r="F323" s="1">
-        <f t="shared" ref="F323:F386" si="5">E323*100</f>
+        <f t="shared" ref="F323:F386" si="11">E323*100</f>
         <v>94</v>
       </c>
       <c r="G323" s="1">
@@ -34269,14 +34267,14 @@
         <v>1</v>
       </c>
       <c r="D324" s="1">
-        <f>C324*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E324" s="1">
         <v>1</v>
       </c>
       <c r="F324" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G324" s="1">
@@ -34294,14 +34292,14 @@
         <v>1</v>
       </c>
       <c r="D325" s="1">
-        <f>C325*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E325" s="1">
         <v>1</v>
       </c>
       <c r="F325" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G325" s="1">
@@ -34319,14 +34317,14 @@
         <v>1</v>
       </c>
       <c r="D326" s="1">
-        <f>C326*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E326" s="1">
         <v>1</v>
       </c>
       <c r="F326" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G326" s="1">
@@ -34344,14 +34342,14 @@
         <v>1</v>
       </c>
       <c r="D327" s="1">
-        <f>C327*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E327" s="1">
         <v>1</v>
       </c>
       <c r="F327" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G327" s="1">
@@ -34369,14 +34367,14 @@
         <v>1</v>
       </c>
       <c r="D328" s="1">
-        <f>C328*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E328" s="1">
         <v>0.5</v>
       </c>
       <c r="F328" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G328" s="1">
@@ -34394,14 +34392,14 @@
         <v>1</v>
       </c>
       <c r="D329" s="1">
-        <f>C329*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E329" s="1">
         <v>0.5</v>
       </c>
       <c r="F329" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G329" s="1">
@@ -34419,14 +34417,14 @@
         <v>1</v>
       </c>
       <c r="D330" s="1">
-        <f>C330*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E330" s="1">
         <v>1</v>
       </c>
       <c r="F330" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G330" s="1">
@@ -34444,14 +34442,14 @@
         <v>1</v>
       </c>
       <c r="D331" s="1">
-        <f>C331*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E331" s="1">
         <v>1</v>
       </c>
       <c r="F331" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G331" s="1">
@@ -34469,14 +34467,14 @@
         <v>1</v>
       </c>
       <c r="D332" s="1">
-        <f>C332*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E332" s="1">
         <v>1</v>
       </c>
       <c r="F332" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G332" s="1">
@@ -34494,14 +34492,14 @@
         <v>1</v>
       </c>
       <c r="D333" s="1">
-        <f>C333*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E333" s="1">
         <v>0.5</v>
       </c>
       <c r="F333" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G333" s="1">
@@ -34519,14 +34517,14 @@
         <v>1</v>
       </c>
       <c r="D334" s="1">
-        <f>C334*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E334" s="1">
         <v>1</v>
       </c>
       <c r="F334" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G334" s="1">
@@ -34544,14 +34542,14 @@
         <v>1</v>
       </c>
       <c r="D335" s="1">
-        <f>C335*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E335" s="1">
         <v>1</v>
       </c>
       <c r="F335" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G335" s="1">
@@ -34569,14 +34567,14 @@
         <v>1</v>
       </c>
       <c r="D336" s="1">
-        <f>C336*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E336" s="1">
         <v>1</v>
       </c>
       <c r="F336" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G336" s="1">
@@ -34594,14 +34592,14 @@
         <v>1</v>
       </c>
       <c r="D337" s="1">
-        <f>C337*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E337" s="1">
         <v>0.5</v>
       </c>
       <c r="F337" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G337" s="1">
@@ -34619,14 +34617,14 @@
         <v>1</v>
       </c>
       <c r="D338" s="1">
-        <f>C338*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E338" s="1">
         <v>1</v>
       </c>
       <c r="F338" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G338" s="1">
@@ -34644,14 +34642,14 @@
         <v>1</v>
       </c>
       <c r="D339" s="1">
-        <f>C339*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E339" s="1">
         <v>1</v>
       </c>
       <c r="F339" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G339" s="1">
@@ -34669,14 +34667,14 @@
         <v>1</v>
       </c>
       <c r="D340" s="1">
-        <f>C340*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E340" s="1">
         <v>0.5</v>
       </c>
       <c r="F340" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G340" s="1">
@@ -34694,14 +34692,14 @@
         <v>1</v>
       </c>
       <c r="D341" s="1">
-        <f>C341*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E341" s="1">
         <v>1</v>
       </c>
       <c r="F341" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G341" s="1">
@@ -34719,14 +34717,14 @@
         <v>1</v>
       </c>
       <c r="D342" s="1">
-        <f>C342*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E342" s="1">
         <v>1</v>
       </c>
       <c r="F342" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G342" s="1">
@@ -34744,14 +34742,14 @@
         <v>1</v>
       </c>
       <c r="D343" s="1">
-        <f>C343*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E343" s="1">
         <v>0.5</v>
       </c>
       <c r="F343" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G343" s="1">
@@ -34769,14 +34767,14 @@
         <v>1</v>
       </c>
       <c r="D344" s="1">
-        <f>C344*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E344" s="1">
         <v>1</v>
       </c>
       <c r="F344" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G344" s="1">
@@ -34794,14 +34792,14 @@
         <v>1</v>
       </c>
       <c r="D345" s="1">
-        <f>C345*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E345" s="1">
         <v>0.5</v>
       </c>
       <c r="F345" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G345" s="1">
@@ -34819,14 +34817,14 @@
         <v>1</v>
       </c>
       <c r="D346" s="1">
-        <f>C346*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E346" s="1">
         <v>1</v>
       </c>
       <c r="F346" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G346" s="1">
@@ -34844,14 +34842,14 @@
         <v>1</v>
       </c>
       <c r="D347" s="1">
-        <f>C347*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E347" s="1">
         <v>1</v>
       </c>
       <c r="F347" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G347" s="1">
@@ -34869,14 +34867,14 @@
         <v>1</v>
       </c>
       <c r="D348" s="1">
-        <f>C348*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E348" s="1">
         <v>0.5</v>
       </c>
       <c r="F348" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G348" s="1">
@@ -34894,14 +34892,14 @@
         <v>1</v>
       </c>
       <c r="D349" s="1">
-        <f>C349*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E349" s="1">
         <v>0.5</v>
       </c>
       <c r="F349" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G349" s="1">
@@ -34919,14 +34917,14 @@
         <v>1</v>
       </c>
       <c r="D350" s="1">
-        <f>C350*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E350" s="1">
         <v>1</v>
       </c>
       <c r="F350" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G350" s="1">
@@ -34944,14 +34942,14 @@
         <v>1</v>
       </c>
       <c r="D351" s="1">
-        <f>C351*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E351" s="1">
         <v>1</v>
       </c>
       <c r="F351" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G351" s="1">
@@ -34969,14 +34967,14 @@
         <v>1</v>
       </c>
       <c r="D352" s="1">
-        <f>C352*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E352" s="1">
         <v>1</v>
       </c>
       <c r="F352" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G352" s="1">
@@ -34994,14 +34992,14 @@
         <v>1</v>
       </c>
       <c r="D353" s="1">
-        <f>C353*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E353" s="1">
         <v>1</v>
       </c>
       <c r="F353" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G353" s="1">
@@ -35019,14 +35017,14 @@
         <v>1</v>
       </c>
       <c r="D354" s="1">
-        <f>C354*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E354" s="1">
         <v>1</v>
       </c>
       <c r="F354" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G354" s="1">
@@ -35044,14 +35042,14 @@
         <v>1</v>
       </c>
       <c r="D355" s="1">
-        <f>C355*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E355" s="1">
         <v>1</v>
       </c>
       <c r="F355" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G355" s="1">
@@ -35069,14 +35067,14 @@
         <v>1</v>
       </c>
       <c r="D356" s="1">
-        <f>C356*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E356" s="1">
         <v>1</v>
       </c>
       <c r="F356" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G356" s="1">
@@ -35094,14 +35092,14 @@
         <v>1</v>
       </c>
       <c r="D357" s="1">
-        <f>C357*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E357" s="1">
         <v>0.5</v>
       </c>
       <c r="F357" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G357" s="1">
@@ -35119,14 +35117,14 @@
         <v>1</v>
       </c>
       <c r="D358" s="1">
-        <f>C358*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E358" s="1">
         <v>1</v>
       </c>
       <c r="F358" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G358" s="1">
@@ -35144,14 +35142,14 @@
         <v>1</v>
       </c>
       <c r="D359" s="1">
-        <f>C359*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E359" s="1">
         <v>1</v>
       </c>
       <c r="F359" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G359" s="1">
@@ -35169,14 +35167,14 @@
         <v>1</v>
       </c>
       <c r="D360" s="1">
-        <f>C360*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E360" s="1">
         <v>1</v>
       </c>
       <c r="F360" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G360" s="1">
@@ -35194,14 +35192,14 @@
         <v>1</v>
       </c>
       <c r="D361" s="1">
-        <f>C361*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E361" s="1">
         <v>1</v>
       </c>
       <c r="F361" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G361" s="1">
@@ -35219,14 +35217,14 @@
         <v>1</v>
       </c>
       <c r="D362" s="1">
-        <f>C362*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E362" s="1">
         <v>1</v>
       </c>
       <c r="F362" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G362" s="1">
@@ -35244,14 +35242,14 @@
         <v>1</v>
       </c>
       <c r="D363" s="1">
-        <f>C363*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E363" s="1">
         <v>0.5</v>
       </c>
       <c r="F363" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G363" s="1">
@@ -35269,14 +35267,14 @@
         <v>1</v>
       </c>
       <c r="D364" s="1">
-        <f>C364*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E364" s="1">
         <v>1</v>
       </c>
       <c r="F364" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G364" s="1">
@@ -35294,14 +35292,14 @@
         <v>1</v>
       </c>
       <c r="D365" s="1">
-        <f>C365*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E365" s="1">
         <v>0.5</v>
       </c>
       <c r="F365" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G365" s="1">
@@ -35319,14 +35317,14 @@
         <v>1</v>
       </c>
       <c r="D366" s="1">
-        <f>C366*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E366" s="1">
         <v>0.5</v>
       </c>
       <c r="F366" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G366" s="1">
@@ -35344,14 +35342,14 @@
         <v>1</v>
       </c>
       <c r="D367" s="1">
-        <f>C367*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E367" s="1">
         <v>0.5</v>
       </c>
       <c r="F367" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G367" s="1">
@@ -35369,14 +35367,14 @@
         <v>1</v>
       </c>
       <c r="D368" s="1">
-        <f>C368*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E368" s="1">
         <v>1</v>
       </c>
       <c r="F368" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G368" s="1">
@@ -35394,14 +35392,14 @@
         <v>1</v>
       </c>
       <c r="D369" s="1">
-        <f>C369*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E369" s="1">
         <v>1</v>
       </c>
       <c r="F369" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G369" s="1">
@@ -35419,14 +35417,14 @@
         <v>1</v>
       </c>
       <c r="D370" s="1">
-        <f>C370*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E370" s="1">
         <v>1</v>
       </c>
       <c r="F370" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G370" s="1">
@@ -35444,14 +35442,14 @@
         <v>1</v>
       </c>
       <c r="D371" s="1">
-        <f>C371*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E371" s="1">
         <v>1</v>
       </c>
       <c r="F371" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G371" s="1">
@@ -35469,14 +35467,14 @@
         <v>1</v>
       </c>
       <c r="D372" s="1">
-        <f>C372*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E372" s="1">
         <v>1</v>
       </c>
       <c r="F372" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G372" s="1">
@@ -35494,14 +35492,14 @@
         <v>1</v>
       </c>
       <c r="D373" s="1">
-        <f>C373*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E373" s="1">
         <v>1</v>
       </c>
       <c r="F373" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G373" s="1">
@@ -35519,14 +35517,14 @@
         <v>1</v>
       </c>
       <c r="D374" s="1">
-        <f>C374*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E374" s="1">
         <v>1</v>
       </c>
       <c r="F374" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G374" s="1">
@@ -35544,14 +35542,14 @@
         <v>1</v>
       </c>
       <c r="D375" s="1">
-        <f>C375*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E375" s="1">
         <v>1</v>
       </c>
       <c r="F375" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G375" s="1">
@@ -35569,14 +35567,14 @@
         <v>1</v>
       </c>
       <c r="D376" s="1">
-        <f>C376*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E376" s="1">
         <v>1</v>
       </c>
       <c r="F376" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G376" s="1">
@@ -35594,14 +35592,14 @@
         <v>1</v>
       </c>
       <c r="D377" s="1">
-        <f>C377*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E377" s="1">
         <v>0.5</v>
       </c>
       <c r="F377" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G377" s="1">
@@ -35619,14 +35617,14 @@
         <v>1</v>
       </c>
       <c r="D378" s="1">
-        <f>C378*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E378" s="1">
         <v>1</v>
       </c>
       <c r="F378" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G378" s="1">
@@ -35644,14 +35642,14 @@
         <v>1</v>
       </c>
       <c r="D379" s="1">
-        <f>C379*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E379" s="1">
         <v>0.5</v>
       </c>
       <c r="F379" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G379" s="1">
@@ -35669,14 +35667,14 @@
         <v>1</v>
       </c>
       <c r="D380" s="1">
-        <f>C380*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E380" s="1">
         <v>0.5</v>
       </c>
       <c r="F380" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="G380" s="1">
@@ -35694,14 +35692,14 @@
         <v>1</v>
       </c>
       <c r="D381" s="1">
-        <f>C381*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E381" s="1">
         <v>0</v>
       </c>
       <c r="F381" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G381" s="1">
@@ -35719,14 +35717,14 @@
         <v>0.47540983606557374</v>
       </c>
       <c r="D382" s="1">
-        <f>C382*100</f>
+        <f t="shared" si="10"/>
         <v>47.540983606557376</v>
       </c>
       <c r="E382" s="1">
         <v>0.69505494505494503</v>
       </c>
       <c r="F382" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>69.505494505494497</v>
       </c>
       <c r="G382" s="1">
@@ -35744,14 +35742,14 @@
         <v>1</v>
       </c>
       <c r="D383" s="1">
-        <f>C383*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E383" s="1">
         <v>0</v>
       </c>
       <c r="F383" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G383" s="1">
@@ -35769,14 +35767,14 @@
         <v>0.875</v>
       </c>
       <c r="D384" s="1">
-        <f>C384*100</f>
+        <f t="shared" si="10"/>
         <v>87.5</v>
       </c>
       <c r="E384" s="1">
         <v>0.96202531645569622</v>
       </c>
       <c r="F384" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>96.202531645569621</v>
       </c>
       <c r="G384" s="1">
@@ -35794,14 +35792,14 @@
         <v>1</v>
       </c>
       <c r="D385" s="1">
-        <f>C385*100</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E385" s="1">
         <v>1</v>
       </c>
       <c r="F385" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G385" s="1">
@@ -35819,14 +35817,14 @@
         <v>1</v>
       </c>
       <c r="D386" s="1">
-        <f>C386*100</f>
+        <f t="shared" ref="D386:D449" si="12">C386*100</f>
         <v>100</v>
       </c>
       <c r="E386" s="1">
         <v>1</v>
       </c>
       <c r="F386" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="G386" s="1">
@@ -35844,14 +35842,14 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="D387" s="1">
-        <f>C387*100</f>
+        <f t="shared" si="12"/>
         <v>81.818181818181827</v>
       </c>
       <c r="E387" s="1">
         <v>0.875</v>
       </c>
       <c r="F387" s="1">
-        <f t="shared" ref="F387:F450" si="6">E387*100</f>
+        <f t="shared" ref="F387:F450" si="13">E387*100</f>
         <v>87.5</v>
       </c>
       <c r="G387" s="1">
@@ -35869,14 +35867,14 @@
         <v>0.92647058823529416</v>
       </c>
       <c r="D388" s="1">
-        <f>C388*100</f>
+        <f t="shared" si="12"/>
         <v>92.64705882352942</v>
       </c>
       <c r="E388" s="1">
         <v>0.99206349206349209</v>
       </c>
       <c r="F388" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>99.206349206349216</v>
       </c>
       <c r="G388" s="1">
@@ -35894,14 +35892,14 @@
         <v>1</v>
       </c>
       <c r="D389" s="1">
-        <f>C389*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E389" s="1">
         <v>1</v>
       </c>
       <c r="F389" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G389" s="1">
@@ -35919,14 +35917,14 @@
         <v>0.75</v>
       </c>
       <c r="D390" s="1">
-        <f>C390*100</f>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="E390" s="1">
         <v>0.94444444444444442</v>
       </c>
       <c r="F390" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>94.444444444444443</v>
       </c>
       <c r="G390" s="1">
@@ -35944,14 +35942,14 @@
         <v>1</v>
       </c>
       <c r="D391" s="1">
-        <f>C391*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E391" s="1">
         <v>1</v>
       </c>
       <c r="F391" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G391" s="1">
@@ -35969,14 +35967,14 @@
         <v>1</v>
       </c>
       <c r="D392" s="1">
-        <f>C392*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E392" s="1">
         <v>1</v>
       </c>
       <c r="F392" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G392" s="1">
@@ -35994,14 +35992,14 @@
         <v>1</v>
       </c>
       <c r="D393" s="1">
-        <f>C393*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E393" s="1">
         <v>1</v>
       </c>
       <c r="F393" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G393" s="1">
@@ -36019,14 +36017,14 @@
         <v>1</v>
       </c>
       <c r="D394" s="1">
-        <f>C394*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E394" s="1">
         <v>1</v>
       </c>
       <c r="F394" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G394" s="1">
@@ -36044,14 +36042,14 @@
         <v>1</v>
       </c>
       <c r="D395" s="1">
-        <f>C395*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E395" s="1">
         <v>1</v>
       </c>
       <c r="F395" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G395" s="1">
@@ -36069,14 +36067,14 @@
         <v>1</v>
       </c>
       <c r="D396" s="1">
-        <f>C396*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E396" s="1">
         <v>1</v>
       </c>
       <c r="F396" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G396" s="1">
@@ -36094,14 +36092,14 @@
         <v>1</v>
       </c>
       <c r="D397" s="1">
-        <f>C397*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E397" s="1">
         <v>1</v>
       </c>
       <c r="F397" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G397" s="1">
@@ -36119,14 +36117,14 @@
         <v>1</v>
       </c>
       <c r="D398" s="1">
-        <f>C398*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E398" s="1">
         <v>1</v>
       </c>
       <c r="F398" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G398" s="1">
@@ -36144,14 +36142,14 @@
         <v>0.625</v>
       </c>
       <c r="D399" s="1">
-        <f>C399*100</f>
+        <f t="shared" si="12"/>
         <v>62.5</v>
       </c>
       <c r="E399" s="1">
         <v>0.65909090909090906</v>
       </c>
       <c r="F399" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>65.909090909090907</v>
       </c>
       <c r="G399" s="1">
@@ -36169,14 +36167,14 @@
         <v>1</v>
       </c>
       <c r="D400" s="1">
-        <f>C400*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E400" s="1">
         <v>1</v>
       </c>
       <c r="F400" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G400" s="1">
@@ -36194,14 +36192,14 @@
         <v>1</v>
       </c>
       <c r="D401" s="1">
-        <f>C401*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E401" s="1">
         <v>1</v>
       </c>
       <c r="F401" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G401" s="1">
@@ -36219,14 +36217,14 @@
         <v>0.5</v>
       </c>
       <c r="D402" s="1">
-        <f>C402*100</f>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="E402" s="1">
         <v>0.52631578947368418</v>
       </c>
       <c r="F402" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>52.631578947368418</v>
       </c>
       <c r="G402" s="1">
@@ -36244,14 +36242,14 @@
         <v>0.625</v>
       </c>
       <c r="D403" s="1">
-        <f>C403*100</f>
+        <f t="shared" si="12"/>
         <v>62.5</v>
       </c>
       <c r="E403" s="1">
         <v>0.9642857142857143</v>
       </c>
       <c r="F403" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>96.428571428571431</v>
       </c>
       <c r="G403" s="1">
@@ -36269,14 +36267,14 @@
         <v>1</v>
       </c>
       <c r="D404" s="1">
-        <f>C404*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E404" s="1">
         <v>1</v>
       </c>
       <c r="F404" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G404" s="1">
@@ -36294,14 +36292,14 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D405" s="1">
-        <f>C405*100</f>
+        <f t="shared" si="12"/>
         <v>83.333333333333343</v>
       </c>
       <c r="E405" s="1">
         <v>0.88235294117647056</v>
       </c>
       <c r="F405" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>88.235294117647058</v>
       </c>
       <c r="G405" s="1">
@@ -36319,14 +36317,14 @@
         <v>1</v>
       </c>
       <c r="D406" s="1">
-        <f>C406*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E406" s="1">
         <v>1</v>
       </c>
       <c r="F406" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G406" s="1">
@@ -36344,14 +36342,14 @@
         <v>0.25</v>
       </c>
       <c r="D407" s="1">
-        <f>C407*100</f>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="E407" s="1">
         <v>0.41176470588235292</v>
       </c>
       <c r="F407" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>41.17647058823529</v>
       </c>
       <c r="G407" s="1">
@@ -36369,14 +36367,14 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="D408" s="1">
-        <f>C408*100</f>
+        <f t="shared" si="12"/>
         <v>78.571428571428569</v>
       </c>
       <c r="E408" s="1">
         <v>0.96</v>
       </c>
       <c r="F408" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>96</v>
       </c>
       <c r="G408" s="1">
@@ -36394,14 +36392,14 @@
         <v>0.75</v>
       </c>
       <c r="D409" s="1">
-        <f>C409*100</f>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="E409" s="1">
         <v>0.86363636363636365</v>
       </c>
       <c r="F409" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>86.36363636363636</v>
       </c>
       <c r="G409" s="1">
@@ -36419,14 +36417,14 @@
         <v>1</v>
       </c>
       <c r="D410" s="1">
-        <f>C410*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E410" s="1">
         <v>1</v>
       </c>
       <c r="F410" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G410" s="1">
@@ -36444,14 +36442,14 @@
         <v>0.5</v>
       </c>
       <c r="D411" s="1">
-        <f>C411*100</f>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="E411" s="1">
         <v>0.84615384615384615</v>
       </c>
       <c r="F411" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>84.615384615384613</v>
       </c>
       <c r="G411" s="1">
@@ -36469,14 +36467,14 @@
         <v>1</v>
       </c>
       <c r="D412" s="1">
-        <f>C412*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E412" s="1">
         <v>1</v>
       </c>
       <c r="F412" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G412" s="1">
@@ -36494,14 +36492,14 @@
         <v>1</v>
       </c>
       <c r="D413" s="1">
-        <f>C413*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E413" s="1">
         <v>1</v>
       </c>
       <c r="F413" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G413" s="1">
@@ -36519,14 +36517,14 @@
         <v>1</v>
       </c>
       <c r="D414" s="1">
-        <f>C414*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E414" s="1">
         <v>1</v>
       </c>
       <c r="F414" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G414" s="1">
@@ -36544,14 +36542,14 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="D415" s="1">
-        <f>C415*100</f>
+        <f t="shared" si="12"/>
         <v>81.818181818181827</v>
       </c>
       <c r="E415" s="1">
         <v>0.88888888888888884</v>
       </c>
       <c r="F415" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>88.888888888888886</v>
       </c>
       <c r="G415" s="1">
@@ -36569,14 +36567,14 @@
         <v>0.85</v>
       </c>
       <c r="D416" s="1">
-        <f>C416*100</f>
+        <f t="shared" si="12"/>
         <v>85</v>
       </c>
       <c r="E416" s="1">
         <v>0.96551724137931039</v>
       </c>
       <c r="F416" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>96.551724137931032</v>
       </c>
       <c r="G416" s="1">
@@ -36594,14 +36592,14 @@
         <v>1</v>
       </c>
       <c r="D417" s="1">
-        <f>C417*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E417" s="1">
         <v>1</v>
       </c>
       <c r="F417" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G417" s="1">
@@ -36619,14 +36617,14 @@
         <v>1</v>
       </c>
       <c r="D418" s="1">
-        <f>C418*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E418" s="1">
         <v>1</v>
       </c>
       <c r="F418" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G418" s="1">
@@ -36644,14 +36642,14 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D419" s="1">
-        <f>C419*100</f>
+        <f t="shared" si="12"/>
         <v>83.333333333333343</v>
       </c>
       <c r="E419" s="1">
         <v>0.88235294117647056</v>
       </c>
       <c r="F419" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>88.235294117647058</v>
       </c>
       <c r="G419" s="1">
@@ -36669,14 +36667,14 @@
         <v>0.68181818181818177</v>
       </c>
       <c r="D420" s="1">
-        <f>C420*100</f>
+        <f t="shared" si="12"/>
         <v>68.181818181818173</v>
       </c>
       <c r="E420" s="1">
         <v>0.92</v>
       </c>
       <c r="F420" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>92</v>
       </c>
       <c r="G420" s="1">
@@ -36694,14 +36692,14 @@
         <v>1</v>
       </c>
       <c r="D421" s="1">
-        <f>C421*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E421" s="1">
         <v>1</v>
       </c>
       <c r="F421" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G421" s="1">
@@ -36719,14 +36717,14 @@
         <v>0.93103448275862066</v>
       </c>
       <c r="D422" s="1">
-        <f>C422*100</f>
+        <f t="shared" si="12"/>
         <v>93.103448275862064</v>
       </c>
       <c r="E422" s="1">
         <v>0.98529411764705888</v>
       </c>
       <c r="F422" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>98.529411764705884</v>
       </c>
       <c r="G422" s="1">
@@ -36744,14 +36742,14 @@
         <v>0.4</v>
       </c>
       <c r="D423" s="1">
-        <f>C423*100</f>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="E423" s="1">
         <v>0.61290322580645162</v>
       </c>
       <c r="F423" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>61.29032258064516</v>
       </c>
       <c r="G423" s="1">
@@ -36769,14 +36767,14 @@
         <v>1</v>
       </c>
       <c r="D424" s="1">
-        <f>C424*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E424" s="1">
         <v>1</v>
       </c>
       <c r="F424" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G424" s="1">
@@ -36794,14 +36792,14 @@
         <v>1</v>
       </c>
       <c r="D425" s="1">
-        <f>C425*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E425" s="1">
         <v>1</v>
       </c>
       <c r="F425" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G425" s="1">
@@ -36819,14 +36817,14 @@
         <v>1</v>
       </c>
       <c r="D426" s="1">
-        <f>C426*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E426" s="1">
         <v>1</v>
       </c>
       <c r="F426" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G426" s="1">
@@ -36844,14 +36842,14 @@
         <v>1</v>
       </c>
       <c r="D427" s="1">
-        <f>C427*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E427" s="1">
         <v>1</v>
       </c>
       <c r="F427" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G427" s="1">
@@ -36869,14 +36867,14 @@
         <v>0.85</v>
       </c>
       <c r="D428" s="1">
-        <f>C428*100</f>
+        <f t="shared" si="12"/>
         <v>85</v>
       </c>
       <c r="E428" s="1">
         <v>0.94444444444444442</v>
       </c>
       <c r="F428" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>94.444444444444443</v>
       </c>
       <c r="G428" s="1">
@@ -36894,14 +36892,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D429" s="1">
-        <f>C429*100</f>
+        <f t="shared" si="12"/>
         <v>66.666666666666657</v>
       </c>
       <c r="E429" s="1">
         <v>0.94444444444444442</v>
       </c>
       <c r="F429" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>94.444444444444443</v>
       </c>
       <c r="G429" s="1">
@@ -36919,14 +36917,14 @@
         <v>0</v>
       </c>
       <c r="D430" s="1">
-        <f>C430*100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E430" s="1">
         <v>0.5</v>
       </c>
       <c r="F430" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="G430" s="1">
@@ -36944,14 +36942,14 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D431" s="1">
-        <f>C431*100</f>
+        <f t="shared" si="12"/>
         <v>79.166666666666657</v>
       </c>
       <c r="E431" s="1">
         <v>0.97435897435897434</v>
       </c>
       <c r="F431" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>97.435897435897431</v>
       </c>
       <c r="G431" s="1">
@@ -36969,14 +36967,14 @@
         <v>0</v>
       </c>
       <c r="D432" s="1">
-        <f>C432*100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E432" s="1">
         <v>0</v>
       </c>
       <c r="F432" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G432" s="1">
@@ -36994,14 +36992,14 @@
         <v>0.59558823529411764</v>
       </c>
       <c r="D433" s="1">
-        <f>C433*100</f>
+        <f t="shared" si="12"/>
         <v>59.558823529411761</v>
       </c>
       <c r="E433" s="1">
         <v>0.86825595984943538</v>
       </c>
       <c r="F433" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>86.825595984943533</v>
       </c>
       <c r="G433" s="1">
@@ -37019,14 +37017,14 @@
         <v>0.75</v>
       </c>
       <c r="D434" s="1">
-        <f>C434*100</f>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="E434" s="1">
         <v>0.64102564102564108</v>
       </c>
       <c r="F434" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>64.102564102564102</v>
       </c>
       <c r="G434" s="1">
@@ -37044,14 +37042,14 @@
         <v>0.80769230769230771</v>
       </c>
       <c r="D435" s="1">
-        <f>C435*100</f>
+        <f t="shared" si="12"/>
         <v>80.769230769230774</v>
       </c>
       <c r="E435" s="1">
         <v>0.88607594936708856</v>
       </c>
       <c r="F435" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>88.60759493670885</v>
       </c>
       <c r="G435" s="1">
@@ -37069,14 +37067,14 @@
         <v>0.5</v>
       </c>
       <c r="D436" s="1">
-        <f>C436*100</f>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="E436" s="1">
         <v>0.73913043478260865</v>
       </c>
       <c r="F436" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>73.91304347826086</v>
       </c>
       <c r="G436" s="1">
@@ -37094,14 +37092,14 @@
         <v>0.5</v>
       </c>
       <c r="D437" s="1">
-        <f>C437*100</f>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="E437" s="1">
         <v>0.88888888888888884</v>
       </c>
       <c r="F437" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>88.888888888888886</v>
       </c>
       <c r="G437" s="1">
@@ -37119,14 +37117,14 @@
         <v>0.91379310344827591</v>
       </c>
       <c r="D438" s="1">
-        <f>C438*100</f>
+        <f t="shared" si="12"/>
         <v>91.379310344827587</v>
       </c>
       <c r="E438" s="1">
         <v>0.91256830601092898</v>
       </c>
       <c r="F438" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>91.256830601092901</v>
       </c>
       <c r="G438" s="1">
@@ -37144,14 +37142,14 @@
         <v>0</v>
       </c>
       <c r="D439" s="1">
-        <f>C439*100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E439" s="1">
         <v>0</v>
       </c>
       <c r="F439" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G439" s="1">
@@ -37169,14 +37167,14 @@
         <v>1</v>
       </c>
       <c r="D440" s="1">
-        <f>C440*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E440" s="1">
         <v>1</v>
       </c>
       <c r="F440" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G440" s="1">
@@ -37194,14 +37192,14 @@
         <v>1</v>
       </c>
       <c r="D441" s="1">
-        <f>C441*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E441" s="1">
         <v>1</v>
       </c>
       <c r="F441" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G441" s="1">
@@ -37219,14 +37217,14 @@
         <v>1</v>
       </c>
       <c r="D442" s="1">
-        <f>C442*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E442" s="1">
         <v>1</v>
       </c>
       <c r="F442" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G442" s="1">
@@ -37244,14 +37242,14 @@
         <v>1</v>
       </c>
       <c r="D443" s="1">
-        <f>C443*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E443" s="1">
         <v>1</v>
       </c>
       <c r="F443" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G443" s="1">
@@ -37269,14 +37267,14 @@
         <v>1</v>
       </c>
       <c r="D444" s="1">
-        <f>C444*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E444" s="1">
         <v>0</v>
       </c>
       <c r="F444" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G444" s="1">
@@ -37294,14 +37292,14 @@
         <v>1</v>
       </c>
       <c r="D445" s="1">
-        <f>C445*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E445" s="1">
         <v>1</v>
       </c>
       <c r="F445" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G445" s="1">
@@ -37319,14 +37317,14 @@
         <v>1</v>
       </c>
       <c r="D446" s="1">
-        <f>C446*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E446" s="1">
         <v>1</v>
       </c>
       <c r="F446" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G446" s="1">
@@ -37344,14 +37342,14 @@
         <v>1</v>
       </c>
       <c r="D447" s="1">
-        <f>C447*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E447" s="1">
         <v>1</v>
       </c>
       <c r="F447" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G447" s="1">
@@ -37369,14 +37367,14 @@
         <v>1</v>
       </c>
       <c r="D448" s="1">
-        <f>C448*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E448" s="1">
         <v>1</v>
       </c>
       <c r="F448" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G448" s="1">
@@ -37394,14 +37392,14 @@
         <v>1</v>
       </c>
       <c r="D449" s="1">
-        <f>C449*100</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E449" s="1">
         <v>0</v>
       </c>
       <c r="F449" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G449" s="1">
@@ -37419,14 +37417,14 @@
         <v>1</v>
       </c>
       <c r="D450" s="1">
-        <f>C450*100</f>
+        <f t="shared" ref="D450:D513" si="14">C450*100</f>
         <v>100</v>
       </c>
       <c r="E450" s="1">
         <v>1</v>
       </c>
       <c r="F450" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="G450" s="1">
@@ -37444,14 +37442,14 @@
         <v>0.92307692307692313</v>
       </c>
       <c r="D451" s="1">
-        <f>C451*100</f>
+        <f t="shared" si="14"/>
         <v>92.307692307692307</v>
       </c>
       <c r="E451" s="1">
         <v>0.97202797202797198</v>
       </c>
       <c r="F451" s="1">
-        <f t="shared" ref="F451:F514" si="7">E451*100</f>
+        <f t="shared" ref="F451:F514" si="15">E451*100</f>
         <v>97.2027972027972</v>
       </c>
       <c r="G451" s="1">
@@ -37469,14 +37467,14 @@
         <v>0</v>
       </c>
       <c r="D452" s="1">
-        <f>C452*100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E452" s="1">
         <v>0</v>
       </c>
       <c r="F452" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G452" s="1">
@@ -37494,14 +37492,14 @@
         <v>1</v>
       </c>
       <c r="D453" s="1">
-        <f>C453*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E453" s="1">
         <v>0</v>
       </c>
       <c r="F453" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G453" s="1">
@@ -37519,14 +37517,14 @@
         <v>1</v>
       </c>
       <c r="D454" s="1">
-        <f>C454*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E454" s="1">
         <v>1</v>
       </c>
       <c r="F454" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G454" s="1">
@@ -37544,14 +37542,14 @@
         <v>0.76190476190476186</v>
       </c>
       <c r="D455" s="1">
-        <f>C455*100</f>
+        <f t="shared" si="14"/>
         <v>76.19047619047619</v>
       </c>
       <c r="E455" s="1">
         <v>0.87755102040816324</v>
       </c>
       <c r="F455" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>87.755102040816325</v>
       </c>
       <c r="G455" s="1">
@@ -37569,14 +37567,14 @@
         <v>1</v>
       </c>
       <c r="D456" s="1">
-        <f>C456*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E456" s="1">
         <v>1</v>
       </c>
       <c r="F456" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G456" s="1">
@@ -37594,14 +37592,14 @@
         <v>1</v>
       </c>
       <c r="D457" s="1">
-        <f>C457*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E457" s="1">
         <v>1</v>
       </c>
       <c r="F457" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G457" s="1">
@@ -37619,14 +37617,14 @@
         <v>0</v>
       </c>
       <c r="D458" s="1">
-        <f>C458*100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E458" s="1">
         <v>0</v>
       </c>
       <c r="F458" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G458" s="1">
@@ -37644,14 +37642,14 @@
         <v>1</v>
       </c>
       <c r="D459" s="1">
-        <f>C459*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E459" s="1">
         <v>0</v>
       </c>
       <c r="F459" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G459" s="1">
@@ -37669,14 +37667,14 @@
         <v>1</v>
       </c>
       <c r="D460" s="1">
-        <f>C460*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E460" s="1">
         <v>1</v>
       </c>
       <c r="F460" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G460" s="1">
@@ -37694,14 +37692,14 @@
         <v>1</v>
       </c>
       <c r="D461" s="1">
-        <f>C461*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E461" s="1">
         <v>1</v>
       </c>
       <c r="F461" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G461" s="1">
@@ -37719,14 +37717,14 @@
         <v>1</v>
       </c>
       <c r="D462" s="1">
-        <f>C462*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E462" s="1">
         <v>0</v>
       </c>
       <c r="F462" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G462" s="1">
@@ -37744,14 +37742,14 @@
         <v>0.59459459459459463</v>
       </c>
       <c r="D463" s="1">
-        <f>C463*100</f>
+        <f t="shared" si="14"/>
         <v>59.45945945945946</v>
       </c>
       <c r="E463" s="1">
         <v>0.70672389127324753</v>
       </c>
       <c r="F463" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>70.672389127324749</v>
       </c>
       <c r="G463" s="1">
@@ -37769,14 +37767,14 @@
         <v>1</v>
       </c>
       <c r="D464" s="1">
-        <f>C464*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E464" s="1">
         <v>0</v>
       </c>
       <c r="F464" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G464" s="1">
@@ -37794,14 +37792,14 @@
         <v>0</v>
       </c>
       <c r="D465" s="1">
-        <f>C465*100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E465" s="1">
         <v>0</v>
       </c>
       <c r="F465" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G465" s="1">
@@ -37819,14 +37817,14 @@
         <v>0.5</v>
       </c>
       <c r="D466" s="1">
-        <f>C466*100</f>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="E466" s="1">
         <v>1</v>
       </c>
       <c r="F466" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G466" s="1">
@@ -37844,14 +37842,14 @@
         <v>1</v>
       </c>
       <c r="D467" s="1">
-        <f>C467*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E467" s="1">
         <v>0</v>
       </c>
       <c r="F467" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G467" s="1">
@@ -37869,14 +37867,14 @@
         <v>0</v>
       </c>
       <c r="D468" s="1">
-        <f>C468*100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E468" s="1">
         <v>0</v>
       </c>
       <c r="F468" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G468" s="1">
@@ -37894,14 +37892,14 @@
         <v>1</v>
       </c>
       <c r="D469" s="1">
-        <f>C469*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E469" s="1">
         <v>0</v>
       </c>
       <c r="F469" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G469" s="1">
@@ -37919,14 +37917,14 @@
         <v>0.5</v>
       </c>
       <c r="D470" s="1">
-        <f>C470*100</f>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="E470" s="1">
         <v>1</v>
       </c>
       <c r="F470" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G470" s="1">
@@ -37944,14 +37942,14 @@
         <v>1</v>
       </c>
       <c r="D471" s="1">
-        <f>C471*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E471" s="1">
         <v>0</v>
       </c>
       <c r="F471" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G471" s="1">
@@ -37969,14 +37967,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D472" s="1">
-        <f>C472*100</f>
+        <f t="shared" si="14"/>
         <v>66.666666666666657</v>
       </c>
       <c r="E472" s="1">
         <v>0.75</v>
       </c>
       <c r="F472" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>75</v>
       </c>
       <c r="G472" s="1">
@@ -37994,14 +37992,14 @@
         <v>0.875</v>
       </c>
       <c r="D473" s="1">
-        <f>C473*100</f>
+        <f t="shared" si="14"/>
         <v>87.5</v>
       </c>
       <c r="E473" s="1">
         <v>0.86363636363636365</v>
       </c>
       <c r="F473" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>86.36363636363636</v>
       </c>
       <c r="G473" s="1">
@@ -38019,14 +38017,14 @@
         <v>1</v>
       </c>
       <c r="D474" s="1">
-        <f>C474*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E474" s="1">
         <v>1</v>
       </c>
       <c r="F474" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G474" s="1">
@@ -38044,14 +38042,14 @@
         <v>0</v>
       </c>
       <c r="D475" s="1">
-        <f>C475*100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E475" s="1">
         <v>0</v>
       </c>
       <c r="F475" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G475" s="1">
@@ -38069,14 +38067,14 @@
         <v>1</v>
       </c>
       <c r="D476" s="1">
-        <f>C476*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E476" s="1">
         <v>1</v>
       </c>
       <c r="F476" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G476" s="1">
@@ -38094,14 +38092,14 @@
         <v>0.5</v>
       </c>
       <c r="D477" s="1">
-        <f>C477*100</f>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="E477" s="1">
         <v>1</v>
       </c>
       <c r="F477" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G477" s="1">
@@ -38119,14 +38117,14 @@
         <v>0.8</v>
       </c>
       <c r="D478" s="1">
-        <f>C478*100</f>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="E478" s="1">
         <v>0.96153846153846156</v>
       </c>
       <c r="F478" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>96.15384615384616</v>
       </c>
       <c r="G478" s="1">
@@ -38144,14 +38142,14 @@
         <v>1</v>
       </c>
       <c r="D479" s="1">
-        <f>C479*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E479" s="1">
         <v>0</v>
       </c>
       <c r="F479" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G479" s="1">
@@ -38169,14 +38167,14 @@
         <v>1</v>
       </c>
       <c r="D480" s="1">
-        <f>C480*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E480" s="1">
         <v>1</v>
       </c>
       <c r="F480" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G480" s="1">
@@ -38194,14 +38192,14 @@
         <v>0.75</v>
       </c>
       <c r="D481" s="1">
-        <f>C481*100</f>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="E481" s="1">
         <v>0.90476190476190477</v>
       </c>
       <c r="F481" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>90.476190476190482</v>
       </c>
       <c r="G481" s="1">
@@ -38219,14 +38217,14 @@
         <v>0.9</v>
       </c>
       <c r="D482" s="1">
-        <f>C482*100</f>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="E482" s="1">
         <v>0.95454545454545459</v>
       </c>
       <c r="F482" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>95.454545454545453</v>
       </c>
       <c r="G482" s="1">
@@ -38244,14 +38242,14 @@
         <v>0</v>
       </c>
       <c r="D483" s="1">
-        <f>C483*100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E483" s="1">
         <v>0</v>
       </c>
       <c r="F483" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G483" s="1">
@@ -38269,14 +38267,14 @@
         <v>1</v>
       </c>
       <c r="D484" s="1">
-        <f>C484*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E484" s="1">
         <v>1</v>
       </c>
       <c r="F484" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G484" s="1">
@@ -38294,14 +38292,14 @@
         <v>1</v>
       </c>
       <c r="D485" s="1">
-        <f>C485*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E485" s="1">
         <v>0</v>
       </c>
       <c r="F485" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G485" s="1">
@@ -38319,14 +38317,14 @@
         <v>1</v>
       </c>
       <c r="D486" s="1">
-        <f>C486*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E486" s="1">
         <v>0</v>
       </c>
       <c r="F486" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G486" s="1">
@@ -38344,14 +38342,14 @@
         <v>1</v>
       </c>
       <c r="D487" s="1">
-        <f>C487*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E487" s="1">
         <v>1</v>
       </c>
       <c r="F487" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G487" s="1">
@@ -38369,14 +38367,14 @@
         <v>1</v>
       </c>
       <c r="D488" s="1">
-        <f>C488*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E488" s="1">
         <v>0</v>
       </c>
       <c r="F488" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G488" s="1">
@@ -38394,14 +38392,14 @@
         <v>1</v>
       </c>
       <c r="D489" s="1">
-        <f>C489*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E489" s="1">
         <v>1</v>
       </c>
       <c r="F489" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G489" s="1">
@@ -38419,14 +38417,14 @@
         <v>1</v>
       </c>
       <c r="D490" s="1">
-        <f>C490*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E490" s="1">
         <v>1</v>
       </c>
       <c r="F490" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G490" s="1">
@@ -38444,14 +38442,14 @@
         <v>1</v>
       </c>
       <c r="D491" s="1">
-        <f>C491*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E491" s="1">
         <v>1</v>
       </c>
       <c r="F491" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G491" s="1">
@@ -38469,14 +38467,14 @@
         <v>1</v>
       </c>
       <c r="D492" s="1">
-        <f>C492*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E492" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="F492" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>33.333333333333329</v>
       </c>
       <c r="G492" s="1">
@@ -38494,14 +38492,14 @@
         <v>1</v>
       </c>
       <c r="D493" s="1">
-        <f>C493*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E493" s="1">
         <v>1</v>
       </c>
       <c r="F493" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G493" s="1">
@@ -38519,14 +38517,14 @@
         <v>1</v>
       </c>
       <c r="D494" s="1">
-        <f>C494*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E494" s="1">
         <v>1</v>
       </c>
       <c r="F494" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G494" s="1">
@@ -38544,14 +38542,14 @@
         <v>0.91176470588235292</v>
       </c>
       <c r="D495" s="1">
-        <f>C495*100</f>
+        <f t="shared" si="14"/>
         <v>91.17647058823529</v>
       </c>
       <c r="E495" s="1">
         <v>0.9101123595505618</v>
       </c>
       <c r="F495" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>91.011235955056179</v>
       </c>
       <c r="G495" s="1">
@@ -38569,14 +38567,14 @@
         <v>1</v>
       </c>
       <c r="D496" s="1">
-        <f>C496*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E496" s="1">
         <v>1</v>
       </c>
       <c r="F496" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G496" s="1">
@@ -38594,14 +38592,14 @@
         <v>0.3</v>
       </c>
       <c r="D497" s="1">
-        <f>C497*100</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="E497" s="1">
         <v>0.5</v>
       </c>
       <c r="F497" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="G497" s="1">
@@ -38619,14 +38617,14 @@
         <v>1</v>
       </c>
       <c r="D498" s="1">
-        <f>C498*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E498" s="1">
         <v>1</v>
       </c>
       <c r="F498" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G498" s="1">
@@ -38644,14 +38642,14 @@
         <v>1</v>
       </c>
       <c r="D499" s="1">
-        <f>C499*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E499">
         <v>0.5</v>
       </c>
       <c r="F499" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="G499" s="1">
@@ -38669,14 +38667,14 @@
         <v>1</v>
       </c>
       <c r="D500" s="1">
-        <f>C500*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E500">
         <v>1</v>
       </c>
       <c r="F500" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G500" s="1">
@@ -38694,14 +38692,14 @@
         <v>1</v>
       </c>
       <c r="D501" s="1">
-        <f>C501*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E501">
         <v>1</v>
       </c>
       <c r="F501" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G501" s="1">
@@ -38719,14 +38717,14 @@
         <v>1</v>
       </c>
       <c r="D502" s="1">
-        <f>C502*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E502">
         <v>1</v>
       </c>
       <c r="F502" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G502" s="1">
@@ -38744,14 +38742,14 @@
         <v>0.63235294117647056</v>
       </c>
       <c r="D503" s="1">
-        <f>C503*100</f>
+        <f t="shared" si="14"/>
         <v>63.235294117647058</v>
       </c>
       <c r="E503">
         <v>0.8626692456479691</v>
       </c>
       <c r="F503" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>86.266924564796909</v>
       </c>
       <c r="G503" s="1">
@@ -38769,14 +38767,14 @@
         <v>1</v>
       </c>
       <c r="D504" s="1">
-        <f>C504*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E504">
         <v>1</v>
       </c>
       <c r="F504" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G504" s="1">
@@ -38794,14 +38792,14 @@
         <v>1</v>
       </c>
       <c r="D505" s="1">
-        <f>C505*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E505">
         <v>1</v>
       </c>
       <c r="F505" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G505" s="1">
@@ -38819,14 +38817,14 @@
         <v>0.66060606060606064</v>
       </c>
       <c r="D506" s="1">
-        <f>C506*100</f>
+        <f t="shared" si="14"/>
         <v>66.060606060606062</v>
       </c>
       <c r="E506">
         <v>0.91970802919708028</v>
       </c>
       <c r="F506" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>91.970802919708035</v>
       </c>
       <c r="G506" s="1">
@@ -38844,14 +38842,14 @@
         <v>1</v>
       </c>
       <c r="D507" s="1">
-        <f>C507*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E507">
         <v>1</v>
       </c>
       <c r="F507" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G507" s="1">
@@ -38869,14 +38867,14 @@
         <v>1</v>
       </c>
       <c r="D508" s="1">
-        <f>C508*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E508">
         <v>1</v>
       </c>
       <c r="F508" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G508" s="1">
@@ -38894,14 +38892,14 @@
         <v>1</v>
       </c>
       <c r="D509" s="1">
-        <f>C509*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E509">
         <v>1</v>
       </c>
       <c r="F509" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G509" s="1">
@@ -38919,14 +38917,14 @@
         <v>1</v>
       </c>
       <c r="D510" s="1">
-        <f>C510*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E510">
         <v>1</v>
       </c>
       <c r="F510" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G510" s="1">
@@ -38944,14 +38942,14 @@
         <v>1</v>
       </c>
       <c r="D511" s="1">
-        <f>C511*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E511">
         <v>1</v>
       </c>
       <c r="F511" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G511" s="1">
@@ -38969,14 +38967,14 @@
         <v>0.61904761904761907</v>
       </c>
       <c r="D512" s="1">
-        <f>C512*100</f>
+        <f t="shared" si="14"/>
         <v>61.904761904761905</v>
       </c>
       <c r="E512">
         <v>0.78125</v>
       </c>
       <c r="F512" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>78.125</v>
       </c>
       <c r="G512" s="1">
@@ -38994,14 +38992,14 @@
         <v>1</v>
       </c>
       <c r="D513" s="1">
-        <f>C513*100</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="E513">
         <v>1</v>
       </c>
       <c r="F513" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G513" s="1">
@@ -39019,14 +39017,14 @@
         <v>1</v>
       </c>
       <c r="D514" s="1">
-        <f>C514*100</f>
+        <f t="shared" ref="D514:D577" si="16">C514*100</f>
         <v>100</v>
       </c>
       <c r="E514">
         <v>1</v>
       </c>
       <c r="F514" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="G514" s="1">
@@ -39044,14 +39042,14 @@
         <v>1</v>
       </c>
       <c r="D515" s="1">
-        <f>C515*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E515">
         <v>1</v>
       </c>
       <c r="F515" s="1">
-        <f t="shared" ref="F515:F534" si="8">E515*100</f>
+        <f t="shared" ref="F515:F534" si="17">E515*100</f>
         <v>100</v>
       </c>
       <c r="G515" s="1">
@@ -39069,14 +39067,14 @@
         <v>1</v>
       </c>
       <c r="D516" s="1">
-        <f>C516*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E516">
         <v>0.82</v>
       </c>
       <c r="F516" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>82</v>
       </c>
       <c r="G516" s="1">
@@ -39094,14 +39092,14 @@
         <v>1</v>
       </c>
       <c r="D517" s="1">
-        <f>C517*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E517">
         <v>1</v>
       </c>
       <c r="F517" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="G517" s="1">
@@ -39119,14 +39117,14 @@
         <v>1</v>
       </c>
       <c r="D518" s="1">
-        <f>C518*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E518">
         <v>1</v>
       </c>
       <c r="F518" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="G518" s="1">
@@ -39144,14 +39142,14 @@
         <v>1</v>
       </c>
       <c r="D519" s="1">
-        <f>C519*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E519">
         <v>1</v>
       </c>
       <c r="F519" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="G519" s="1">
@@ -39169,14 +39167,14 @@
         <v>0.31818181818181818</v>
       </c>
       <c r="D520" s="1">
-        <f>C520*100</f>
+        <f t="shared" si="16"/>
         <v>31.818181818181817</v>
       </c>
       <c r="E520">
         <v>0.58974358974358976</v>
       </c>
       <c r="F520" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>58.974358974358978</v>
       </c>
       <c r="G520" s="1">
@@ -39194,14 +39192,14 @@
         <v>1</v>
       </c>
       <c r="D521" s="1">
-        <f>C521*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E521">
         <v>1</v>
       </c>
       <c r="F521" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="G521" s="1">
@@ -39219,14 +39217,14 @@
         <v>1</v>
       </c>
       <c r="D522" s="1">
-        <f>C522*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E522">
         <v>1</v>
       </c>
       <c r="F522" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="G522" s="1">
@@ -39244,14 +39242,14 @@
         <v>1</v>
       </c>
       <c r="D523" s="1">
-        <f>C523*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E523">
         <v>1</v>
       </c>
       <c r="F523" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="G523" s="1">
@@ -39269,14 +39267,14 @@
         <v>1</v>
       </c>
       <c r="D524" s="1">
-        <f>C524*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E524">
         <v>1</v>
       </c>
       <c r="F524" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="G524" s="1">
@@ -39294,14 +39292,14 @@
         <v>1</v>
       </c>
       <c r="D525" s="1">
-        <f>C525*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E525">
         <v>1</v>
       </c>
       <c r="F525" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="G525" s="1">
@@ -39319,14 +39317,14 @@
         <v>1</v>
       </c>
       <c r="D526" s="1">
-        <f>C526*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E526">
         <v>1</v>
       </c>
       <c r="F526" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="G526" s="1">
@@ -39344,14 +39342,14 @@
         <v>1</v>
       </c>
       <c r="D527" s="1">
-        <f>C527*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E527">
         <v>1</v>
       </c>
       <c r="F527" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="G527" s="1">
@@ -39369,14 +39367,14 @@
         <v>1</v>
       </c>
       <c r="D528" s="1">
-        <f>C528*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E528">
         <v>1</v>
       </c>
       <c r="F528" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="G528" s="1">
@@ -39394,14 +39392,14 @@
         <v>1</v>
       </c>
       <c r="D529" s="1">
-        <f>C529*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E529">
         <v>1</v>
       </c>
       <c r="F529" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="G529" s="1">
@@ -39419,14 +39417,14 @@
         <v>1</v>
       </c>
       <c r="D530" s="1">
-        <f>C530*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E530">
         <v>0.5</v>
       </c>
       <c r="F530" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="G530" s="1">
@@ -39444,14 +39442,14 @@
         <v>1</v>
       </c>
       <c r="D531" s="1">
-        <f>C531*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E531">
         <v>1</v>
       </c>
       <c r="F531" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="G531" s="1">
@@ -39469,14 +39467,14 @@
         <v>1</v>
       </c>
       <c r="D532" s="1">
-        <f>C532*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E532">
         <v>0</v>
       </c>
       <c r="F532" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G532" s="1">
@@ -39494,14 +39492,14 @@
         <v>1</v>
       </c>
       <c r="D533" s="1">
-        <f>C533*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E533">
         <v>1</v>
       </c>
       <c r="F533" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="G533" s="1">
@@ -39519,14 +39517,14 @@
         <v>1</v>
       </c>
       <c r="D534" s="1">
-        <f>C534*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="E534">
         <v>1</v>
       </c>
       <c r="F534" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="G534" s="1">
